--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_15_3.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_15_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2320333.26221219</v>
+        <v>-2323260.911028917</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -899,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>14.07204895699768</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -911,10 +911,10 @@
         <v>14.07204895699768</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>5.51861497961212</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>14.07204895699768</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -981,20 +981,20 @@
         <v>14.07204895699768</v>
       </c>
       <c r="E6" t="n">
+        <v>14.07204895699768</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
         <v>12.39466072132356</v>
       </c>
-      <c r="F6" t="n">
+      <c r="I6" t="n">
         <v>14.07204895699768</v>
       </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>14.07204895699768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>14.07204895699768</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1075,49 +1075,49 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
         <v>14.07204895699768</v>
       </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
       <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
         <v>12.39466072132356</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="n">
-        <v>14.07204895699768</v>
       </c>
       <c r="Y7" t="n">
         <v>14.07204895699768</v>
@@ -1133,13 +1133,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>157.1187419577135</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>157.1187419577135</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>131.4600546760547</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>21.12316271950939</v>
       </c>
       <c r="S8" t="n">
-        <v>118.2609691467483</v>
+        <v>157.1187419577135</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>122.7964937088976</v>
       </c>
       <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
         <v>157.1187419577135</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1209,70 +1209,70 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>150.4397174806836</v>
+        <v>157.1187419577135</v>
       </c>
       <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>32.07159191921399</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
         <v>157.1187419577135</v>
       </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>145.0692123933839</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>106.31859599714</v>
       </c>
       <c r="X9" t="n">
         <v>157.1187419577135</v>
@@ -1291,28 +1291,28 @@
         <v>157.1187419577135</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>123.234681653342</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>154.0531901378539</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>28.36014035361791</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>9.177839155320669</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>141.4557397362136</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>157.1187419577135</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1385,10 +1385,10 @@
         <v>410.5542363313568</v>
       </c>
       <c r="H11" t="n">
-        <v>290.8442143673985</v>
+        <v>290.8442143673986</v>
       </c>
       <c r="I11" t="n">
-        <v>27.40929768279636</v>
+        <v>27.40929768279642</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>81.4190579959098</v>
+        <v>100.8135988608993</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1427,13 +1427,13 @@
         <v>250.9657728131342</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>308.3577176051434</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1467,7 +1467,7 @@
         <v>87.6979003481799</v>
       </c>
       <c r="I12" t="n">
-        <v>12.04748466699134</v>
+        <v>12.04748466699135</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1531,7 +1531,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>132.7503956032898</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>91.39514006513274</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>81.52020932515231</v>
+        <v>81.52020932515232</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>186.8962603916595</v>
       </c>
       <c r="T13" t="n">
         <v>218.8446198438803</v>
@@ -1585,16 +1585,16 @@
         <v>286.2028467660517</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>17.41368175498434</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1610,16 +1610,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>204.673362471639</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G14" t="n">
-        <v>410.1644063769637</v>
+        <v>410.1644063769638</v>
       </c>
       <c r="H14" t="n">
         <v>286.8518683469699</v>
@@ -1661,16 +1661,16 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9345864167828</v>
+        <v>100.9249072677391</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>81.97599399093663</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>41.56058300854908</v>
+        <v>165.6861009032421</v>
       </c>
       <c r="H16" t="n">
-        <v>141.7347076965137</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         <v>183.8488525946973</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>218.097472392356</v>
       </c>
       <c r="U16" t="n">
         <v>286.1933087134791</v>
@@ -1859,7 +1859,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H17" t="n">
-        <v>255.2416659947557</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>60.32014642295175</v>
+        <v>60.32014642295086</v>
       </c>
       <c r="T17" t="n">
         <v>168.9926026545724</v>
@@ -1941,7 +1941,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I18" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>120.6170668389678</v>
+        <v>120.6170668389679</v>
       </c>
       <c r="T18" t="n">
         <v>189.0833237787849</v>
@@ -2011,7 +2011,7 @@
         <v>114.8237602943552</v>
       </c>
       <c r="F19" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707177</v>
       </c>
       <c r="G19" t="n">
         <v>134.0758985510282</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>42.04747230221648</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S19" t="n">
         <v>152.2386502424833</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>60.32014642295174</v>
+        <v>60.32014642295177</v>
       </c>
       <c r="T20" t="n">
         <v>168.9926026545724</v>
@@ -2178,7 +2178,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I21" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>120.6170668389678</v>
+        <v>120.6170668389679</v>
       </c>
       <c r="T21" t="n">
         <v>189.0833237787849</v>
@@ -2257,7 +2257,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I22" t="n">
-        <v>54.52629139453012</v>
+        <v>54.52629139453011</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>186.487270040142</v>
       </c>
       <c r="U22" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V22" t="n">
         <v>220.5274409716141</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>60.32014642295175</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T23" t="n">
         <v>168.9926026545724</v>
@@ -2375,7 +2375,7 @@
         <v>219.3243840645688</v>
       </c>
       <c r="V23" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179206</v>
       </c>
       <c r="W23" t="n">
         <v>317.6307663651991</v>
@@ -2415,7 +2415,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I24" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>120.6170668389678</v>
+        <v>120.6170668389679</v>
       </c>
       <c r="T24" t="n">
         <v>189.0833237787849</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.04747230221577</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S25" t="n">
         <v>152.2386502424833</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>60.32014642295174</v>
+        <v>60.32014642295176</v>
       </c>
       <c r="T26" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545723</v>
       </c>
       <c r="U26" t="n">
         <v>219.3243840645688</v>
@@ -2652,7 +2652,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I27" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2682,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>120.6170668389678</v>
+        <v>120.6170668389679</v>
       </c>
       <c r="T27" t="n">
         <v>189.0833237787849</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297233</v>
       </c>
       <c r="C28" t="n">
         <v>135.6366187464139</v>
@@ -2731,7 +2731,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I28" t="n">
-        <v>54.52629139453011</v>
+        <v>54.5262913945301</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2767,13 +2767,13 @@
         <v>186.487270040142</v>
       </c>
       <c r="U28" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V28" t="n">
-        <v>220.5274409716141</v>
+        <v>220.527440971614</v>
       </c>
       <c r="W28" t="n">
-        <v>254.9127959843771</v>
+        <v>254.912795984377</v>
       </c>
       <c r="X28" t="n">
         <v>194.0994530368232</v>
@@ -2792,7 +2792,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C29" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187935</v>
       </c>
       <c r="D29" t="n">
         <v>323.072839268469</v>
@@ -2801,13 +2801,13 @@
         <v>350.3201677200478</v>
       </c>
       <c r="F29" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894974</v>
       </c>
       <c r="G29" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247497</v>
       </c>
       <c r="H29" t="n">
-        <v>255.2416659947559</v>
+        <v>255.2416659947558</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,22 +2840,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>60.32014642295177</v>
+        <v>60.32014642295171</v>
       </c>
       <c r="T29" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545723</v>
       </c>
       <c r="U29" t="n">
         <v>219.3243840645688</v>
       </c>
       <c r="V29" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179209</v>
       </c>
       <c r="W29" t="n">
-        <v>317.6307663651991</v>
+        <v>317.630766365199</v>
       </c>
       <c r="X29" t="n">
-        <v>338.1208983262551</v>
+        <v>338.120898326255</v>
       </c>
       <c r="Y29" t="n">
         <v>354.6277363038396</v>
@@ -2889,7 +2889,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I30" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2919,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>120.6170668389678</v>
+        <v>120.6170668389679</v>
       </c>
       <c r="T30" t="n">
         <v>189.0833237787849</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297233</v>
       </c>
       <c r="C31" t="n">
-        <v>135.6366187464139</v>
+        <v>135.6366187464138</v>
       </c>
       <c r="D31" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659983</v>
       </c>
       <c r="E31" t="n">
         <v>114.8237602943552</v>
       </c>
       <c r="F31" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707172</v>
       </c>
       <c r="G31" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510281</v>
       </c>
       <c r="H31" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442996</v>
       </c>
       <c r="I31" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453231</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,25 +2995,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.04747230221578</v>
+        <v>42.0474723022157</v>
       </c>
       <c r="S31" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424832</v>
       </c>
       <c r="T31" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401419</v>
       </c>
       <c r="U31" t="n">
-        <v>254.5831063612652</v>
+        <v>254.583106361265</v>
       </c>
       <c r="V31" t="n">
-        <v>220.5274409716141</v>
+        <v>220.527440971614</v>
       </c>
       <c r="W31" t="n">
-        <v>254.9127959843771</v>
+        <v>254.912795984377</v>
       </c>
       <c r="X31" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368231</v>
       </c>
       <c r="Y31" t="n">
         <v>186.9744509998808</v>
@@ -3035,7 +3035,7 @@
         <v>323.072839268469</v>
       </c>
       <c r="E32" t="n">
-        <v>350.3201677200485</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F32" t="n">
         <v>375.2658433894975</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>60.32014642295172</v>
+        <v>60.32014642295177</v>
       </c>
       <c r="T32" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U32" t="n">
         <v>219.3243840645688</v>
@@ -3126,7 +3126,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I33" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3156,7 +3156,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>120.6170668389678</v>
+        <v>120.6170668389679</v>
       </c>
       <c r="T33" t="n">
         <v>189.0833237787849</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C34" t="n">
         <v>135.6366187464139</v>
@@ -3202,10 +3202,10 @@
         <v>134.0758985510282</v>
       </c>
       <c r="H34" t="n">
-        <v>110.1245053443011</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I34" t="n">
-        <v>54.52629139453009</v>
+        <v>54.52629139453011</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.04747230221574</v>
+        <v>42.04747230221577</v>
       </c>
       <c r="S34" t="n">
         <v>152.2386502424833</v>
@@ -3241,13 +3241,13 @@
         <v>186.487270040142</v>
       </c>
       <c r="U34" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V34" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W34" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X34" t="n">
         <v>194.0994530368232</v>
@@ -3275,7 +3275,7 @@
         <v>350.3201677200478</v>
       </c>
       <c r="F35" t="n">
-        <v>375.2658433894981</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G35" t="n">
         <v>378.5542040247498</v>
@@ -3314,16 +3314,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>60.32014642295172</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T35" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U35" t="n">
         <v>219.3243840645688</v>
       </c>
       <c r="V35" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179206</v>
       </c>
       <c r="W35" t="n">
         <v>317.6307663651991</v>
@@ -3363,7 +3363,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I36" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3393,7 +3393,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>120.6170668389678</v>
+        <v>120.6170668389679</v>
       </c>
       <c r="T36" t="n">
         <v>189.0833237787849</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C37" t="n">
         <v>135.6366187464139</v>
@@ -3433,7 +3433,7 @@
         <v>114.8237602943552</v>
       </c>
       <c r="F37" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707177</v>
       </c>
       <c r="G37" t="n">
         <v>134.0758985510282</v>
@@ -3442,7 +3442,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I37" t="n">
-        <v>54.5262913945301</v>
+        <v>54.52629139453012</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.04747230221574</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S37" t="n">
         <v>152.2386502424833</v>
@@ -3481,10 +3481,10 @@
         <v>254.5831063612651</v>
       </c>
       <c r="V37" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W37" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X37" t="n">
         <v>194.0994530368232</v>
@@ -3551,16 +3551,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>60.32014642295172</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T38" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U38" t="n">
         <v>219.3243840645688</v>
       </c>
       <c r="V38" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179206</v>
       </c>
       <c r="W38" t="n">
         <v>317.6307663651991</v>
@@ -3569,7 +3569,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y38" t="n">
-        <v>354.62773630384</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3600,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I39" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3630,7 +3630,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>120.6170668389678</v>
+        <v>120.6170668389679</v>
       </c>
       <c r="T39" t="n">
         <v>189.0833237787849</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C40" t="n">
         <v>135.6366187464139</v>
@@ -3679,7 +3679,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I40" t="n">
-        <v>54.52629139453009</v>
+        <v>54.52629139453012</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.04747230221574</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S40" t="n">
         <v>152.2386502424833</v>
@@ -3718,10 +3718,10 @@
         <v>254.5831063612651</v>
       </c>
       <c r="V40" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W40" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X40" t="n">
         <v>194.0994530368232</v>
@@ -3737,13 +3737,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>351.1236393112672</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C41" t="n">
         <v>333.6626894187936</v>
       </c>
       <c r="D41" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684669</v>
       </c>
       <c r="E41" t="n">
         <v>350.3201677200478</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>60.32014642295175</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T41" t="n">
         <v>168.9926026545724</v>
@@ -3837,7 +3837,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I42" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3867,7 +3867,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>120.6170668389678</v>
+        <v>120.6170668389679</v>
       </c>
       <c r="T42" t="n">
         <v>189.0833237787849</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.04747230221577</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S43" t="n">
         <v>152.2386502424833</v>
@@ -3986,7 +3986,7 @@
         <v>350.3201677200478</v>
       </c>
       <c r="F44" t="n">
-        <v>375.2658433894981</v>
+        <v>375.2658433894955</v>
       </c>
       <c r="G44" t="n">
         <v>378.5542040247498</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>60.32014642295175</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T44" t="n">
         <v>168.9926026545724</v>
@@ -4074,7 +4074,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I45" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4104,7 +4104,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>120.6170668389678</v>
+        <v>120.6170668389679</v>
       </c>
       <c r="T45" t="n">
         <v>189.0833237787849</v>
@@ -4153,7 +4153,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I46" t="n">
-        <v>54.52629139453012</v>
+        <v>54.52629139453011</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4541,10 +4541,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>42.0740049623365</v>
+        <v>27.85981409668228</v>
       </c>
       <c r="C5" t="n">
-        <v>42.0740049623365</v>
+        <v>27.85981409668228</v>
       </c>
       <c r="D5" t="n">
         <v>27.85981409668228</v>
@@ -4559,7 +4559,7 @@
         <v>6.700122481824582</v>
       </c>
       <c r="H5" t="n">
-        <v>1.125763916559815</v>
+        <v>6.700122481824582</v>
       </c>
       <c r="I5" t="n">
         <v>1.125763916559815</v>
@@ -4568,22 +4568,22 @@
         <v>1.125763916559815</v>
       </c>
       <c r="K5" t="n">
-        <v>15.05709238398752</v>
+        <v>1.125763916559815</v>
       </c>
       <c r="L5" t="n">
+        <v>14.49421042570761</v>
+      </c>
+      <c r="M5" t="n">
+        <v>14.49421042570761</v>
+      </c>
+      <c r="N5" t="n">
         <v>28.42553889313532</v>
-      </c>
-      <c r="M5" t="n">
-        <v>42.35686736056302</v>
-      </c>
-      <c r="N5" t="n">
-        <v>42.35686736056302</v>
       </c>
       <c r="O5" t="n">
         <v>42.35686736056302</v>
       </c>
       <c r="P5" t="n">
-        <v>42.35686736056302</v>
+        <v>56.28819582799073</v>
       </c>
       <c r="Q5" t="n">
         <v>56.28819582799073</v>
@@ -4598,19 +4598,19 @@
         <v>42.0740049623365</v>
       </c>
       <c r="U5" t="n">
-        <v>42.0740049623365</v>
+        <v>27.85981409668228</v>
       </c>
       <c r="V5" t="n">
-        <v>42.0740049623365</v>
+        <v>27.85981409668228</v>
       </c>
       <c r="W5" t="n">
-        <v>42.0740049623365</v>
+        <v>27.85981409668228</v>
       </c>
       <c r="X5" t="n">
-        <v>42.0740049623365</v>
+        <v>27.85981409668228</v>
       </c>
       <c r="Y5" t="n">
-        <v>42.0740049623365</v>
+        <v>27.85981409668228</v>
       </c>
     </row>
     <row r="6">
@@ -4620,46 +4620,46 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>56.28819582799073</v>
+      </c>
+      <c r="C6" t="n">
+        <v>56.28819582799073</v>
+      </c>
+      <c r="D6" t="n">
         <v>42.0740049623365</v>
       </c>
-      <c r="C6" t="n">
-        <v>42.0740049623365</v>
-      </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>27.85981409668228</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
+        <v>27.85981409668228</v>
+      </c>
+      <c r="G6" t="n">
+        <v>27.85981409668228</v>
+      </c>
+      <c r="H6" t="n">
         <v>15.33995478221404</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1.125763916559815</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1.125763916559815</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1.125763916559815</v>
       </c>
       <c r="I6" t="n">
         <v>1.125763916559815</v>
       </c>
       <c r="J6" t="n">
-        <v>1.125763916559815</v>
+        <v>10.11963891630869</v>
       </c>
       <c r="K6" t="n">
-        <v>1.125763916559815</v>
+        <v>10.11963891630869</v>
       </c>
       <c r="L6" t="n">
-        <v>5.500335425958736</v>
+        <v>14.49421042570761</v>
       </c>
       <c r="M6" t="n">
-        <v>19.43166389338644</v>
+        <v>28.42553889313532</v>
       </c>
       <c r="N6" t="n">
-        <v>33.36299236081415</v>
+        <v>42.35686736056302</v>
       </c>
       <c r="O6" t="n">
-        <v>47.29432082824185</v>
+        <v>56.28819582799073</v>
       </c>
       <c r="P6" t="n">
         <v>56.28819582799073</v>
@@ -4674,22 +4674,22 @@
         <v>56.28819582799073</v>
       </c>
       <c r="T6" t="n">
-        <v>42.0740049623365</v>
+        <v>56.28819582799073</v>
       </c>
       <c r="U6" t="n">
-        <v>42.0740049623365</v>
+        <v>56.28819582799073</v>
       </c>
       <c r="V6" t="n">
-        <v>42.0740049623365</v>
+        <v>56.28819582799073</v>
       </c>
       <c r="W6" t="n">
-        <v>42.0740049623365</v>
+        <v>56.28819582799073</v>
       </c>
       <c r="X6" t="n">
-        <v>42.0740049623365</v>
+        <v>56.28819582799073</v>
       </c>
       <c r="Y6" t="n">
-        <v>42.0740049623365</v>
+        <v>56.28819582799073</v>
       </c>
     </row>
     <row r="7">
@@ -4708,19 +4708,19 @@
         <v>15.33995478221404</v>
       </c>
       <c r="E7" t="n">
-        <v>15.33995478221404</v>
+        <v>1.125763916559815</v>
       </c>
       <c r="F7" t="n">
-        <v>15.33995478221404</v>
+        <v>1.125763916559815</v>
       </c>
       <c r="G7" t="n">
-        <v>15.33995478221404</v>
+        <v>1.125763916559815</v>
       </c>
       <c r="H7" t="n">
-        <v>15.33995478221404</v>
+        <v>1.125763916559815</v>
       </c>
       <c r="I7" t="n">
-        <v>15.33995478221404</v>
+        <v>1.125763916559815</v>
       </c>
       <c r="J7" t="n">
         <v>1.125763916559815</v>
@@ -4735,34 +4735,34 @@
         <v>28.98842085141522</v>
       </c>
       <c r="N7" t="n">
-        <v>42.91974931884292</v>
+        <v>42.35686736056302</v>
       </c>
       <c r="O7" t="n">
-        <v>42.91974931884292</v>
+        <v>56.28819582799073</v>
       </c>
       <c r="P7" t="n">
         <v>56.28819582799073</v>
       </c>
       <c r="Q7" t="n">
-        <v>56.28819582799073</v>
+        <v>42.0740049623365</v>
       </c>
       <c r="R7" t="n">
-        <v>43.76833651352248</v>
+        <v>42.0740049623365</v>
       </c>
       <c r="S7" t="n">
-        <v>43.76833651352248</v>
+        <v>42.0740049623365</v>
       </c>
       <c r="T7" t="n">
-        <v>43.76833651352248</v>
+        <v>42.0740049623365</v>
       </c>
       <c r="U7" t="n">
-        <v>43.76833651352248</v>
+        <v>42.0740049623365</v>
       </c>
       <c r="V7" t="n">
-        <v>43.76833651352248</v>
+        <v>42.0740049623365</v>
       </c>
       <c r="W7" t="n">
-        <v>43.76833651352248</v>
+        <v>42.0740049623365</v>
       </c>
       <c r="X7" t="n">
         <v>29.55414564786826</v>
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>350.3136434829127</v>
+        <v>165.6899775845569</v>
       </c>
       <c r="C8" t="n">
-        <v>191.6078435256263</v>
+        <v>165.6899775845569</v>
       </c>
       <c r="D8" t="n">
-        <v>191.6078435256263</v>
+        <v>165.6899775845569</v>
       </c>
       <c r="E8" t="n">
-        <v>32.90204356833999</v>
+        <v>165.6899775845569</v>
       </c>
       <c r="F8" t="n">
-        <v>25.95654281913652</v>
+        <v>158.7444768353534</v>
       </c>
       <c r="G8" t="n">
-        <v>12.56949935661708</v>
+        <v>145.357433372834</v>
       </c>
       <c r="H8" t="n">
-        <v>12.56949935661708</v>
+        <v>145.357433372834</v>
       </c>
       <c r="I8" t="n">
         <v>12.56949935661708</v>
@@ -4826,28 +4826,28 @@
         <v>628.4749678308539</v>
       </c>
       <c r="R8" t="n">
-        <v>628.4749678308539</v>
+        <v>607.1384398313494</v>
       </c>
       <c r="S8" t="n">
-        <v>509.019443440199</v>
+        <v>448.4326398740631</v>
       </c>
       <c r="T8" t="n">
-        <v>509.019443440199</v>
+        <v>324.3957775418432</v>
       </c>
       <c r="U8" t="n">
-        <v>350.3136434829127</v>
+        <v>324.3957775418432</v>
       </c>
       <c r="V8" t="n">
-        <v>350.3136434829127</v>
+        <v>324.3957775418432</v>
       </c>
       <c r="W8" t="n">
-        <v>350.3136434829127</v>
+        <v>324.3957775418432</v>
       </c>
       <c r="X8" t="n">
-        <v>350.3136434829127</v>
+        <v>165.6899775845569</v>
       </c>
       <c r="Y8" t="n">
-        <v>350.3136434829127</v>
+        <v>165.6899775845569</v>
       </c>
     </row>
     <row r="9">
@@ -4857,16 +4857,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>317.8098572870184</v>
+        <v>12.56949935661708</v>
       </c>
       <c r="C9" t="n">
-        <v>159.1040573297321</v>
+        <v>12.56949935661708</v>
       </c>
       <c r="D9" t="n">
-        <v>159.1040573297321</v>
+        <v>12.56949935661708</v>
       </c>
       <c r="E9" t="n">
-        <v>159.1040573297321</v>
+        <v>12.56949935661708</v>
       </c>
       <c r="F9" t="n">
         <v>12.56949935661708</v>
@@ -4905,28 +4905,28 @@
         <v>628.4749678308539</v>
       </c>
       <c r="R9" t="n">
-        <v>628.4749678308539</v>
+        <v>596.0794204377084</v>
       </c>
       <c r="S9" t="n">
-        <v>628.4749678308539</v>
+        <v>596.0794204377084</v>
       </c>
       <c r="T9" t="n">
-        <v>628.4749678308539</v>
+        <v>596.0794204377084</v>
       </c>
       <c r="U9" t="n">
-        <v>628.4749678308539</v>
+        <v>596.0794204377084</v>
       </c>
       <c r="V9" t="n">
-        <v>628.4749678308539</v>
+        <v>437.3736204804221</v>
       </c>
       <c r="W9" t="n">
-        <v>628.4749678308539</v>
+        <v>329.9810992711897</v>
       </c>
       <c r="X9" t="n">
-        <v>469.7691678735675</v>
+        <v>171.2752993139034</v>
       </c>
       <c r="Y9" t="n">
-        <v>469.7691678735675</v>
+        <v>171.2752993139034</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>168.1787823241463</v>
+        <v>460.4986232722335</v>
       </c>
       <c r="C10" t="n">
-        <v>168.1787823241463</v>
+        <v>336.0191468547164</v>
       </c>
       <c r="D10" t="n">
-        <v>168.1787823241463</v>
+        <v>336.0191468547164</v>
       </c>
       <c r="E10" t="n">
-        <v>168.1787823241463</v>
+        <v>188.1060532723233</v>
       </c>
       <c r="F10" t="n">
-        <v>168.1787823241463</v>
+        <v>41.21610577441295</v>
       </c>
       <c r="G10" t="n">
-        <v>168.1787823241463</v>
+        <v>41.21610577441295</v>
       </c>
       <c r="H10" t="n">
-        <v>12.56949935661708</v>
+        <v>41.21610577441295</v>
       </c>
       <c r="I10" t="n">
-        <v>12.56949935661708</v>
+        <v>41.21610577441295</v>
       </c>
       <c r="J10" t="n">
         <v>12.56949935661708</v>
@@ -4966,13 +4966,13 @@
         <v>96.26795780325853</v>
       </c>
       <c r="L10" t="n">
-        <v>209.9931087730137</v>
+        <v>207.4161077513813</v>
       </c>
       <c r="M10" t="n">
-        <v>365.5406633111501</v>
+        <v>212.5529336051928</v>
       </c>
       <c r="N10" t="n">
-        <v>521.0882178492864</v>
+        <v>368.1004881433291</v>
       </c>
       <c r="O10" t="n">
         <v>521.0882178492864</v>
@@ -4981,31 +4981,31 @@
         <v>628.4749678308539</v>
       </c>
       <c r="Q10" t="n">
-        <v>628.4749678308539</v>
+        <v>619.2044232295199</v>
       </c>
       <c r="R10" t="n">
-        <v>628.4749678308539</v>
+        <v>619.2044232295199</v>
       </c>
       <c r="S10" t="n">
-        <v>628.4749678308539</v>
+        <v>619.2044232295199</v>
       </c>
       <c r="T10" t="n">
-        <v>628.4749678308539</v>
+        <v>619.2044232295199</v>
       </c>
       <c r="U10" t="n">
-        <v>628.4749678308539</v>
+        <v>619.2044232295199</v>
       </c>
       <c r="V10" t="n">
-        <v>628.4749678308539</v>
+        <v>619.2044232295199</v>
       </c>
       <c r="W10" t="n">
-        <v>628.4749678308539</v>
+        <v>619.2044232295199</v>
       </c>
       <c r="X10" t="n">
-        <v>485.5903822387189</v>
+        <v>619.2044232295199</v>
       </c>
       <c r="Y10" t="n">
-        <v>326.8845822814326</v>
+        <v>619.2044232295199</v>
       </c>
     </row>
     <row r="11">
@@ -5027,7 +5027,7 @@
         <v>1222.629206479542</v>
       </c>
       <c r="F11" t="n">
-        <v>811.643301689934</v>
+        <v>811.6433016899341</v>
       </c>
       <c r="G11" t="n">
         <v>396.9420528703816</v>
@@ -5036,49 +5036,49 @@
         <v>103.1600181558376</v>
       </c>
       <c r="I11" t="n">
-        <v>75.4738588802857</v>
+        <v>75.47385888028565</v>
       </c>
       <c r="J11" t="n">
-        <v>295.2312847220965</v>
+        <v>295.2312847220956</v>
       </c>
       <c r="K11" t="n">
-        <v>675.3292180690332</v>
+        <v>675.3292180690321</v>
       </c>
       <c r="L11" t="n">
-        <v>1183.776076802235</v>
+        <v>1183.776076802234</v>
       </c>
       <c r="M11" t="n">
-        <v>1781.19061180847</v>
+        <v>1781.190611808469</v>
       </c>
       <c r="N11" t="n">
-        <v>2392.885746947606</v>
+        <v>2392.885746947604</v>
       </c>
       <c r="O11" t="n">
-        <v>2957.156856180164</v>
+        <v>2957.156856180161</v>
       </c>
       <c r="P11" t="n">
-        <v>3404.248192177695</v>
+        <v>3404.248192177693</v>
       </c>
       <c r="Q11" t="n">
-        <v>3691.822419339623</v>
+        <v>3691.82241933962</v>
       </c>
       <c r="R11" t="n">
-        <v>3773.692944014285</v>
+        <v>3773.692944014283</v>
       </c>
       <c r="S11" t="n">
-        <v>3691.451471291144</v>
+        <v>3671.86102597297</v>
       </c>
       <c r="T11" t="n">
-        <v>3691.451471291144</v>
+        <v>3671.86102597297</v>
       </c>
       <c r="U11" t="n">
-        <v>3437.950690671816</v>
+        <v>3418.360245353643</v>
       </c>
       <c r="V11" t="n">
-        <v>3106.887803328245</v>
+        <v>3418.360245353643</v>
       </c>
       <c r="W11" t="n">
-        <v>2754.119148058131</v>
+        <v>3065.591590083528</v>
       </c>
       <c r="X11" t="n">
         <v>2754.119148058131</v>
@@ -5112,34 +5112,34 @@
         <v>176.2267730370243</v>
       </c>
       <c r="H12" t="n">
-        <v>87.64303531159008</v>
+        <v>87.64303531159004</v>
       </c>
       <c r="I12" t="n">
-        <v>75.4738588802857</v>
+        <v>75.47385888028565</v>
       </c>
       <c r="J12" t="n">
-        <v>75.4738588802857</v>
+        <v>187.5420292655921</v>
       </c>
       <c r="K12" t="n">
-        <v>345.1710367492532</v>
+        <v>457.2392071345595</v>
       </c>
       <c r="L12" t="n">
-        <v>552.2293247713517</v>
+        <v>866.2028866335014</v>
       </c>
       <c r="M12" t="n">
-        <v>1048.827517348303</v>
+        <v>1362.801079210452</v>
       </c>
       <c r="N12" t="n">
-        <v>1572.977831324473</v>
+        <v>1561.033448255073</v>
       </c>
       <c r="O12" t="n">
-        <v>2030.253172338284</v>
+        <v>2018.308789268885</v>
       </c>
       <c r="P12" t="n">
-        <v>2377.923881364778</v>
+        <v>2365.979498295379</v>
       </c>
       <c r="Q12" t="n">
-        <v>2560.413346705498</v>
+        <v>2548.468963636099</v>
       </c>
       <c r="R12" t="n">
         <v>2560.413346705498</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>541.4166287184387</v>
+        <v>617.7096212944085</v>
       </c>
       <c r="C13" t="n">
-        <v>372.4804457905318</v>
+        <v>448.7734383665016</v>
       </c>
       <c r="D13" t="n">
-        <v>222.363806378196</v>
+        <v>448.7734383665016</v>
       </c>
       <c r="E13" t="n">
-        <v>222.363806378196</v>
+        <v>448.7734383665016</v>
       </c>
       <c r="F13" t="n">
-        <v>75.4738588802857</v>
+        <v>301.8834908685913</v>
       </c>
       <c r="G13" t="n">
-        <v>75.4738588802857</v>
+        <v>301.8834908685913</v>
       </c>
       <c r="H13" t="n">
-        <v>75.4738588802857</v>
+        <v>167.7921821783995</v>
       </c>
       <c r="I13" t="n">
-        <v>75.4738588802857</v>
+        <v>75.47385888028565</v>
       </c>
       <c r="J13" t="n">
-        <v>132.1343515292666</v>
+        <v>132.1343515292665</v>
       </c>
       <c r="K13" t="n">
-        <v>355.0817830807068</v>
+        <v>355.0817830807067</v>
       </c>
       <c r="L13" t="n">
-        <v>695.9041719553634</v>
+        <v>695.9041719553632</v>
       </c>
       <c r="M13" t="n">
-        <v>1065.642717293098</v>
+        <v>1065.642717293097</v>
       </c>
       <c r="N13" t="n">
         <v>1432.024322850837</v>
@@ -5224,25 +5224,25 @@
         <v>2015.697864636992</v>
       </c>
       <c r="S13" t="n">
-        <v>2015.697864636992</v>
+        <v>1826.913763231275</v>
       </c>
       <c r="T13" t="n">
-        <v>1794.642693077517</v>
+        <v>1605.8585916718</v>
       </c>
       <c r="U13" t="n">
-        <v>1505.548908465343</v>
+        <v>1316.764807059626</v>
       </c>
       <c r="V13" t="n">
-        <v>1250.864420259456</v>
+        <v>1316.764807059626</v>
       </c>
       <c r="W13" t="n">
-        <v>961.4472502224958</v>
+        <v>1027.347637022666</v>
       </c>
       <c r="X13" t="n">
-        <v>943.8576726922086</v>
+        <v>799.3580861246483</v>
       </c>
       <c r="Y13" t="n">
-        <v>723.0650935486784</v>
+        <v>799.3580861246483</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2161.514696632241</v>
+        <v>2313.039625065619</v>
       </c>
       <c r="C14" t="n">
-        <v>1792.552179691829</v>
+        <v>1944.077108125207</v>
       </c>
       <c r="D14" t="n">
-        <v>1585.811409518456</v>
+        <v>1585.811409518457</v>
       </c>
       <c r="E14" t="n">
         <v>1200.023156920212</v>
       </c>
       <c r="F14" t="n">
-        <v>789.0372521306047</v>
+        <v>789.0372521306049</v>
       </c>
       <c r="G14" t="n">
         <v>374.7297709417525</v>
@@ -5276,13 +5276,13 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J14" t="n">
-        <v>337.4933016076843</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K14" t="n">
-        <v>766.6831886951463</v>
+        <v>766.6831886951452</v>
       </c>
       <c r="L14" t="n">
-        <v>1336.032957050964</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M14" t="n">
         <v>2001.213713746739</v>
@@ -5294,7 +5294,7 @@
         <v>3311.067850233288</v>
       </c>
       <c r="P14" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q14" t="n">
         <v>4142.907144767228</v>
@@ -5309,19 +5309,19 @@
         <v>4249.020448755811</v>
       </c>
       <c r="U14" t="n">
-        <v>3995.551169546939</v>
+        <v>4147.076097980317</v>
       </c>
       <c r="V14" t="n">
-        <v>3664.488282203369</v>
+        <v>3816.013210636747</v>
       </c>
       <c r="W14" t="n">
-        <v>3311.719626933254</v>
+        <v>3463.244555366633</v>
       </c>
       <c r="X14" t="n">
-        <v>2938.253868672175</v>
+        <v>3089.778797105553</v>
       </c>
       <c r="Y14" t="n">
-        <v>2548.114536696363</v>
+        <v>2699.639465129741</v>
       </c>
     </row>
     <row r="15">
@@ -5358,22 +5358,22 @@
         <v>216.5575109835859</v>
       </c>
       <c r="K15" t="n">
-        <v>259.8188512332393</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L15" t="n">
-        <v>713.6174808275667</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M15" t="n">
-        <v>1262.535945437856</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N15" t="n">
-        <v>1840.391293364258</v>
+        <v>1662.137679823382</v>
       </c>
       <c r="O15" t="n">
-        <v>2346.796248312508</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P15" t="n">
-        <v>2346.796248312508</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q15" t="n">
         <v>2555.644190323788</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>737.0930831856941</v>
+        <v>335.1441411914584</v>
       </c>
       <c r="C16" t="n">
-        <v>568.1569002577872</v>
+        <v>252.340106857179</v>
       </c>
       <c r="D16" t="n">
-        <v>418.0402608454515</v>
+        <v>252.340106857179</v>
       </c>
       <c r="E16" t="n">
-        <v>270.1271672630584</v>
+        <v>252.340106857179</v>
       </c>
       <c r="F16" t="n">
-        <v>270.1271672630584</v>
+        <v>252.340106857179</v>
       </c>
       <c r="G16" t="n">
-        <v>228.1467803857361</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="H16" t="n">
         <v>84.98040897511622</v>
@@ -5464,22 +5464,22 @@
         <v>2019.061021685725</v>
       </c>
       <c r="T16" t="n">
-        <v>2019.061021685725</v>
+        <v>1798.760544521729</v>
       </c>
       <c r="U16" t="n">
-        <v>1729.976871470089</v>
+        <v>1509.676394306093</v>
       </c>
       <c r="V16" t="n">
-        <v>1475.292383264202</v>
+        <v>1254.991906100206</v>
       </c>
       <c r="W16" t="n">
-        <v>1185.875213227242</v>
+        <v>965.5747360632456</v>
       </c>
       <c r="X16" t="n">
-        <v>957.8856623292243</v>
+        <v>737.5851851652283</v>
       </c>
       <c r="Y16" t="n">
-        <v>737.0930831856941</v>
+        <v>516.7926060216981</v>
       </c>
     </row>
     <row r="17">
@@ -5501,10 +5501,10 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F17" t="n">
-        <v>725.1782574796673</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G17" t="n">
-        <v>342.8002736162837</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H17" t="n">
         <v>84.98040897511622</v>
@@ -5516,31 +5516,31 @@
         <v>337.4933016076836</v>
       </c>
       <c r="K17" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951447</v>
       </c>
       <c r="L17" t="n">
         <v>1336.032957050963</v>
       </c>
       <c r="M17" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N17" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O17" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P17" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q17" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767227</v>
       </c>
       <c r="R17" t="n">
         <v>4249.020448755811</v>
       </c>
       <c r="S17" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T17" t="n">
         <v>4017.391409283565</v>
@@ -5586,7 +5586,7 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H18" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I18" t="n">
         <v>84.98040897511622</v>
@@ -5595,22 +5595,22 @@
         <v>216.5575109835859</v>
       </c>
       <c r="K18" t="n">
-        <v>216.5575109835859</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L18" t="n">
-        <v>670.3561405779134</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M18" t="n">
-        <v>875.4343898857001</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N18" t="n">
-        <v>1453.289737812102</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O18" t="n">
-        <v>1959.694692760353</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P18" t="n">
-        <v>2346.796248312508</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q18" t="n">
         <v>2555.644190323788</v>
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502104</v>
       </c>
       <c r="C19" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477722</v>
       </c>
       <c r="D19" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609051</v>
       </c>
       <c r="E19" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039807</v>
       </c>
       <c r="F19" t="n">
         <v>386.7245456315385</v>
@@ -5674,16 +5674,16 @@
         <v>185.1742787042785</v>
       </c>
       <c r="K19" t="n">
-        <v>459.5287020443613</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L19" t="n">
         <v>857.3827676902788</v>
       </c>
       <c r="M19" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N19" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O19" t="n">
         <v>2087.878830313936</v>
@@ -5692,7 +5692,7 @@
         <v>2392.455631028689</v>
       </c>
       <c r="Q19" t="n">
-        <v>2529.521427597206</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R19" t="n">
         <v>2487.049233352543</v>
@@ -5701,19 +5701,19 @@
         <v>2333.272818966196</v>
       </c>
       <c r="T19" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U19" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V19" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W19" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X19" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y19" t="n">
         <v>1022.581387254981</v>
@@ -5738,7 +5738,7 @@
         <v>1104.234664943807</v>
       </c>
       <c r="F20" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796678</v>
       </c>
       <c r="G20" t="n">
         <v>342.8002736162838</v>
@@ -5750,13 +5750,13 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J20" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K20" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L20" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M20" t="n">
         <v>2001.213713746739</v>
@@ -5792,10 +5792,10 @@
         <v>3175.879079437414</v>
       </c>
       <c r="X20" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y20" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="21">
@@ -5823,7 +5823,7 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H21" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I21" t="n">
         <v>84.98040897511622</v>
@@ -5832,25 +5832,25 @@
         <v>216.5575109835859</v>
       </c>
       <c r="K21" t="n">
-        <v>519.5985603334505</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L21" t="n">
-        <v>519.5985603334505</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M21" t="n">
-        <v>1068.51702494374</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N21" t="n">
-        <v>1428.524759781582</v>
+        <v>1662.137679823382</v>
       </c>
       <c r="O21" t="n">
-        <v>1934.929714729833</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P21" t="n">
-        <v>2322.031270281988</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q21" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R21" t="n">
         <v>2555.644190323788</v>
@@ -5884,43 +5884,43 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502097</v>
       </c>
       <c r="C22" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477714</v>
       </c>
       <c r="D22" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609043</v>
       </c>
       <c r="E22" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039799</v>
       </c>
       <c r="F22" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315381</v>
       </c>
       <c r="G22" t="n">
-        <v>251.2943450749443</v>
+        <v>251.294345074944</v>
       </c>
       <c r="H22" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897928</v>
       </c>
       <c r="I22" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J22" t="n">
-        <v>185.1742787042785</v>
+        <v>185.174278704278</v>
       </c>
       <c r="K22" t="n">
-        <v>459.5287020443613</v>
+        <v>459.5287020443607</v>
       </c>
       <c r="L22" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902782</v>
       </c>
       <c r="M22" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N22" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O22" t="n">
         <v>2087.878830313935</v>
@@ -5938,7 +5938,7 @@
         <v>2333.272818966196</v>
       </c>
       <c r="T22" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U22" t="n">
         <v>1887.747186237501</v>
@@ -5975,13 +5975,13 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F23" t="n">
-        <v>725.1782574796673</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G23" t="n">
-        <v>342.8002736162837</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H23" t="n">
-        <v>84.98040897511606</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I23" t="n">
         <v>84.98040897511622</v>
@@ -5990,25 +5990,25 @@
         <v>337.4933016076836</v>
       </c>
       <c r="K23" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951447</v>
       </c>
       <c r="L23" t="n">
         <v>1336.032957050963</v>
       </c>
       <c r="M23" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N23" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O23" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P23" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q23" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767227</v>
       </c>
       <c r="R23" t="n">
         <v>4249.020448755811</v>
@@ -6060,34 +6060,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H24" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I24" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J24" t="n">
-        <v>84.98040897511622</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K24" t="n">
-        <v>388.0214583249807</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L24" t="n">
-        <v>510.5988892561708</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M24" t="n">
-        <v>1059.51735386646</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N24" t="n">
-        <v>1637.372701792862</v>
+        <v>1662.137679823382</v>
       </c>
       <c r="O24" t="n">
-        <v>2143.777656741112</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P24" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q24" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R24" t="n">
         <v>2555.644190323788</v>
@@ -6148,13 +6148,13 @@
         <v>185.1742787042785</v>
       </c>
       <c r="K25" t="n">
-        <v>459.5287020443613</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L25" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M25" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N25" t="n">
         <v>1709.719201354973</v>
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2121.462641112806</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C26" t="n">
         <v>1784.429621497863</v>
@@ -6212,22 +6212,22 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F26" t="n">
-        <v>725.1782574796673</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G26" t="n">
         <v>342.8002736162838</v>
       </c>
       <c r="H26" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="I26" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J26" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076833</v>
       </c>
       <c r="K26" t="n">
-        <v>766.6831886951454</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L26" t="n">
         <v>1336.032957050963</v>
@@ -6236,25 +6236,25 @@
         <v>2001.213713746738</v>
       </c>
       <c r="N26" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O26" t="n">
         <v>3311.067850233287</v>
       </c>
       <c r="P26" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q26" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767227</v>
       </c>
       <c r="R26" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.02044875581</v>
       </c>
       <c r="S26" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924546</v>
       </c>
       <c r="T26" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283564</v>
       </c>
       <c r="U26" t="n">
         <v>3795.851627400161</v>
@@ -6269,7 +6269,7 @@
         <v>2834.342818501802</v>
       </c>
       <c r="Y26" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6300,31 @@
         <v>89.89576342177176</v>
       </c>
       <c r="I27" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J27" t="n">
         <v>216.5575109835859</v>
       </c>
       <c r="K27" t="n">
-        <v>216.5575109835859</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L27" t="n">
-        <v>670.3561405779134</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M27" t="n">
-        <v>850.66941185518</v>
+        <v>1084.28233189698</v>
       </c>
       <c r="N27" t="n">
-        <v>1428.524759781582</v>
+        <v>1662.137679823382</v>
       </c>
       <c r="O27" t="n">
-        <v>1934.929714729833</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P27" t="n">
-        <v>2322.031270281988</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q27" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R27" t="n">
         <v>2555.644190323788</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>872.8624197502102</v>
+        <v>872.8624197502095</v>
       </c>
       <c r="C28" t="n">
-        <v>735.8557341477718</v>
+        <v>735.8557341477713</v>
       </c>
       <c r="D28" t="n">
-        <v>617.6685920609048</v>
+        <v>617.6685920609042</v>
       </c>
       <c r="E28" t="n">
-        <v>501.6849958039803</v>
+        <v>501.6849958039797</v>
       </c>
       <c r="F28" t="n">
-        <v>386.7245456315386</v>
+        <v>386.7245456315381</v>
       </c>
       <c r="G28" t="n">
-        <v>251.2943450749444</v>
+        <v>251.294345074944</v>
       </c>
       <c r="H28" t="n">
         <v>140.0574709897931</v>
       </c>
       <c r="I28" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J28" t="n">
-        <v>185.1742787042783</v>
+        <v>185.1742787042781</v>
       </c>
       <c r="K28" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443608</v>
       </c>
       <c r="L28" t="n">
-        <v>857.3827676902787</v>
+        <v>857.3827676902783</v>
       </c>
       <c r="M28" t="n">
         <v>1285.552079040893</v>
@@ -6406,16 +6406,16 @@
         <v>2529.521427597205</v>
       </c>
       <c r="R28" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S28" t="n">
-        <v>2333.272818966197</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T28" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U28" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V28" t="n">
         <v>1664.992195357083</v>
@@ -6424,7 +6424,7 @@
         <v>1407.504522645591</v>
       </c>
       <c r="X28" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y28" t="n">
         <v>1022.581387254981</v>
@@ -6449,10 +6449,10 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F29" t="n">
-        <v>725.1782574796671</v>
+        <v>725.1782574796674</v>
       </c>
       <c r="G29" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162837</v>
       </c>
       <c r="H29" t="n">
         <v>84.98040897511622</v>
@@ -6461,10 +6461,10 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J29" t="n">
-        <v>337.4933016076834</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K29" t="n">
-        <v>766.6831886951447</v>
+        <v>766.6831886951452</v>
       </c>
       <c r="L29" t="n">
         <v>1336.032957050963</v>
@@ -6473,7 +6473,7 @@
         <v>2001.213713746739</v>
       </c>
       <c r="N29" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O29" t="n">
         <v>3311.067850233288</v>
@@ -6482,7 +6482,7 @@
         <v>3813.656640612704</v>
       </c>
       <c r="Q29" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R29" t="n">
         <v>4249.020448755811</v>
@@ -6491,13 +6491,13 @@
         <v>4188.091007924547</v>
       </c>
       <c r="T29" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U29" t="n">
         <v>3795.851627400161</v>
       </c>
       <c r="V29" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W29" t="n">
         <v>3175.879079437414</v>
@@ -6534,7 +6534,7 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H30" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I30" t="n">
         <v>84.98040897511622</v>
@@ -6543,22 +6543,22 @@
         <v>216.5575109835859</v>
       </c>
       <c r="K30" t="n">
-        <v>519.5985603334505</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L30" t="n">
-        <v>973.3971899277778</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M30" t="n">
-        <v>1522.315654538067</v>
+        <v>1084.28233189698</v>
       </c>
       <c r="N30" t="n">
-        <v>1840.391293364258</v>
+        <v>1662.137679823382</v>
       </c>
       <c r="O30" t="n">
-        <v>2346.796248312508</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P30" t="n">
-        <v>2346.796248312508</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q30" t="n">
         <v>2555.644190323788</v>
@@ -6595,43 +6595,43 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502118</v>
       </c>
       <c r="C31" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477735</v>
       </c>
       <c r="D31" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609066</v>
       </c>
       <c r="E31" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039822</v>
       </c>
       <c r="F31" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315405</v>
       </c>
       <c r="G31" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749465</v>
       </c>
       <c r="H31" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897953</v>
       </c>
       <c r="I31" t="n">
-        <v>84.98040897511623</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J31" t="n">
         <v>185.1742787042785</v>
       </c>
       <c r="K31" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443614</v>
       </c>
       <c r="L31" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902789</v>
       </c>
       <c r="M31" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N31" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O31" t="n">
         <v>2087.878830313936</v>
@@ -6640,10 +6640,10 @@
         <v>2392.455631028689</v>
       </c>
       <c r="Q31" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597206</v>
       </c>
       <c r="R31" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S31" t="n">
         <v>2333.272818966197</v>
@@ -6652,19 +6652,19 @@
         <v>2144.90183912767</v>
       </c>
       <c r="U31" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237503</v>
       </c>
       <c r="V31" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357085</v>
       </c>
       <c r="W31" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645593</v>
       </c>
       <c r="X31" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073044</v>
       </c>
       <c r="Y31" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254983</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112806</v>
       </c>
       <c r="C32" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D32" t="n">
-        <v>1458.093420216583</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E32" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943805</v>
       </c>
       <c r="F32" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796666</v>
       </c>
       <c r="G32" t="n">
         <v>342.8002736162838</v>
       </c>
       <c r="H32" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="I32" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J32" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K32" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951447</v>
       </c>
       <c r="L32" t="n">
         <v>1336.032957050963</v>
@@ -6710,40 +6710,40 @@
         <v>2001.213713746738</v>
       </c>
       <c r="N32" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O32" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P32" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q32" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767227</v>
       </c>
       <c r="R32" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.02044875581</v>
       </c>
       <c r="S32" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924546</v>
       </c>
       <c r="T32" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283564</v>
       </c>
       <c r="U32" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V32" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W32" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X32" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y32" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6771,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H33" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I33" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J33" t="n">
-        <v>84.98040897511625</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K33" t="n">
-        <v>388.0214583249807</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L33" t="n">
-        <v>841.8200879193082</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M33" t="n">
-        <v>1390.738552529597</v>
+        <v>1084.28233189698</v>
       </c>
       <c r="N33" t="n">
-        <v>1428.524759781582</v>
+        <v>1662.137679823382</v>
       </c>
       <c r="O33" t="n">
-        <v>1934.929714729833</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P33" t="n">
-        <v>2322.031270281988</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q33" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R33" t="n">
         <v>2555.644190323788</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>872.8624197502113</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C34" t="n">
-        <v>735.8557341477731</v>
+        <v>735.8557341477716</v>
       </c>
       <c r="D34" t="n">
-        <v>617.668592060906</v>
+        <v>617.6685920609045</v>
       </c>
       <c r="E34" t="n">
-        <v>501.6849958039816</v>
+        <v>501.6849958039801</v>
       </c>
       <c r="F34" t="n">
-        <v>386.7245456315399</v>
+        <v>386.7245456315384</v>
       </c>
       <c r="G34" t="n">
-        <v>251.2943450749457</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H34" t="n">
-        <v>140.0574709897931</v>
+        <v>140.057470989793</v>
       </c>
       <c r="I34" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J34" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042781</v>
       </c>
       <c r="K34" t="n">
-        <v>459.5287020443614</v>
+        <v>459.5287020443608</v>
       </c>
       <c r="L34" t="n">
-        <v>857.3827676902789</v>
+        <v>857.3827676902779</v>
       </c>
       <c r="M34" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N34" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354972</v>
       </c>
       <c r="O34" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P34" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q34" t="n">
-        <v>2529.521427597206</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R34" t="n">
-        <v>2487.049233352544</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S34" t="n">
-        <v>2333.272818966197</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T34" t="n">
-        <v>2144.90183912767</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U34" t="n">
-        <v>1887.747186237503</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V34" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W34" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X34" t="n">
-        <v>1211.444469073044</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y34" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="35">
@@ -6917,10 +6917,10 @@
         <v>1784.429621497864</v>
       </c>
       <c r="D35" t="n">
-        <v>1458.093420216583</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E35" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F35" t="n">
         <v>725.1782574796675</v>
@@ -6929,58 +6929,58 @@
         <v>342.8002736162838</v>
       </c>
       <c r="H35" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I35" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J35" t="n">
-        <v>337.4933016076839</v>
+        <v>337.493301607683</v>
       </c>
       <c r="K35" t="n">
-        <v>766.6831886951445</v>
+        <v>766.6831886951443</v>
       </c>
       <c r="L35" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050962</v>
       </c>
       <c r="M35" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N35" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O35" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P35" t="n">
         <v>3813.656640612704</v>
       </c>
       <c r="Q35" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R35" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S35" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T35" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U35" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V35" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W35" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X35" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y35" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>89.89576342177179</v>
       </c>
       <c r="I36" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J36" t="n">
-        <v>216.557510983586</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K36" t="n">
-        <v>519.5985603334505</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L36" t="n">
-        <v>973.3971899277778</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M36" t="n">
-        <v>1446.618909418616</v>
+        <v>1084.28233189698</v>
       </c>
       <c r="N36" t="n">
-        <v>2024.474257345018</v>
+        <v>1662.137679823382</v>
       </c>
       <c r="O36" t="n">
-        <v>2530.879212293268</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P36" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q36" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R36" t="n">
         <v>2555.644190323788</v>
@@ -7069,49 +7069,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502104</v>
       </c>
       <c r="C37" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477722</v>
       </c>
       <c r="D37" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609051</v>
       </c>
       <c r="E37" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039807</v>
       </c>
       <c r="F37" t="n">
         <v>386.7245456315385</v>
       </c>
       <c r="G37" t="n">
-        <v>251.2943450749442</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H37" t="n">
         <v>140.0574709897931</v>
       </c>
       <c r="I37" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J37" t="n">
         <v>185.1742787042785</v>
       </c>
       <c r="K37" t="n">
-        <v>459.5287020443613</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L37" t="n">
         <v>857.3827676902788</v>
       </c>
       <c r="M37" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N37" t="n">
         <v>1709.719201354973</v>
       </c>
       <c r="O37" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P37" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q37" t="n">
         <v>2529.521427597205</v>
@@ -7129,13 +7129,13 @@
         <v>1887.747186237502</v>
       </c>
       <c r="V37" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W37" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X37" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y37" t="n">
         <v>1022.581387254981</v>
@@ -7166,55 +7166,55 @@
         <v>342.8002736162838</v>
       </c>
       <c r="H38" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I38" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J38" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K38" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L38" t="n">
         <v>1336.032957050963</v>
       </c>
       <c r="M38" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N38" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O38" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P38" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q38" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R38" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S38" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T38" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U38" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V38" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W38" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X38" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y38" t="n">
         <v>2476.13298385146</v>
@@ -7248,31 +7248,31 @@
         <v>89.89576342177179</v>
       </c>
       <c r="I39" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J39" t="n">
-        <v>84.98040897511625</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K39" t="n">
-        <v>388.0214583249807</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L39" t="n">
-        <v>841.8200879193082</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M39" t="n">
-        <v>1390.738552529597</v>
+        <v>1084.28233189698</v>
       </c>
       <c r="N39" t="n">
-        <v>1968.593900456</v>
+        <v>1662.137679823382</v>
       </c>
       <c r="O39" t="n">
-        <v>2474.99885540425</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P39" t="n">
-        <v>2474.99885540425</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q39" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R39" t="n">
         <v>2555.644190323788</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>872.8624197502098</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C40" t="n">
-        <v>735.8557341477716</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D40" t="n">
-        <v>617.6685920609045</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E40" t="n">
-        <v>501.6849958039801</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F40" t="n">
-        <v>386.7245456315384</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G40" t="n">
         <v>251.2943450749443</v>
@@ -7327,37 +7327,37 @@
         <v>140.0574709897931</v>
       </c>
       <c r="I40" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J40" t="n">
         <v>185.1742787042785</v>
       </c>
       <c r="K40" t="n">
-        <v>459.5287020443614</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L40" t="n">
-        <v>857.3827676902789</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M40" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N40" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O40" t="n">
         <v>2087.878830313936</v>
       </c>
       <c r="P40" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q40" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R40" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S40" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T40" t="n">
         <v>2144.901839127668</v>
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112805</v>
       </c>
       <c r="C41" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497862</v>
       </c>
       <c r="D41" t="n">
         <v>1458.093420216582</v>
@@ -7397,64 +7397,64 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F41" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796674</v>
       </c>
       <c r="G41" t="n">
         <v>342.8002736162838</v>
       </c>
       <c r="H41" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="I41" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J41" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076837</v>
       </c>
       <c r="K41" t="n">
         <v>766.683188695145</v>
       </c>
       <c r="L41" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050962</v>
       </c>
       <c r="M41" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746737</v>
       </c>
       <c r="N41" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889753</v>
       </c>
       <c r="O41" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P41" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612702</v>
       </c>
       <c r="Q41" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767226</v>
       </c>
       <c r="R41" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755809</v>
       </c>
       <c r="S41" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924545</v>
       </c>
       <c r="T41" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283563</v>
       </c>
       <c r="U41" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.85162740016</v>
       </c>
       <c r="V41" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.718237382058</v>
       </c>
       <c r="W41" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437412</v>
       </c>
       <c r="X41" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501801</v>
       </c>
       <c r="Y41" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.132983851458</v>
       </c>
     </row>
     <row r="42">
@@ -7482,22 +7482,22 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H42" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I42" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J42" t="n">
-        <v>216.557510983586</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K42" t="n">
-        <v>519.5985603334505</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L42" t="n">
-        <v>535.3638672866908</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M42" t="n">
-        <v>1084.28233189698</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N42" t="n">
         <v>1662.137679823382</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>872.8624197502106</v>
+        <v>872.8624197502097</v>
       </c>
       <c r="C43" t="n">
-        <v>735.8557341477724</v>
+        <v>735.8557341477715</v>
       </c>
       <c r="D43" t="n">
-        <v>617.6685920609053</v>
+        <v>617.6685920609044</v>
       </c>
       <c r="E43" t="n">
-        <v>501.6849958039809</v>
+        <v>501.6849958039799</v>
       </c>
       <c r="F43" t="n">
-        <v>386.7245456315392</v>
+        <v>386.7245456315381</v>
       </c>
       <c r="G43" t="n">
-        <v>251.2943450749448</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H43" t="n">
-        <v>140.0574709897936</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I43" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J43" t="n">
-        <v>185.1742787042787</v>
+        <v>185.1742787042783</v>
       </c>
       <c r="K43" t="n">
-        <v>459.5287020443615</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L43" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M43" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N43" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O43" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P43" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q43" t="n">
-        <v>2529.521427597206</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R43" t="n">
-        <v>2487.049233352544</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S43" t="n">
         <v>2333.272818966196</v>
       </c>
       <c r="T43" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U43" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V43" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W43" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X43" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y43" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112805</v>
       </c>
       <c r="C44" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497862</v>
       </c>
       <c r="D44" t="n">
-        <v>1458.093420216583</v>
+        <v>1458.09342021658</v>
       </c>
       <c r="E44" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943804</v>
       </c>
       <c r="F44" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796674</v>
       </c>
       <c r="G44" t="n">
         <v>342.8002736162838</v>
       </c>
       <c r="H44" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="I44" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J44" t="n">
-        <v>337.4933016076843</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K44" t="n">
-        <v>766.6831886951454</v>
+        <v>766.6831886951436</v>
       </c>
       <c r="L44" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050962</v>
       </c>
       <c r="M44" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746737</v>
       </c>
       <c r="N44" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889753</v>
       </c>
       <c r="O44" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P44" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612702</v>
       </c>
       <c r="Q44" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767226</v>
       </c>
       <c r="R44" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755809</v>
       </c>
       <c r="S44" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924545</v>
       </c>
       <c r="T44" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283563</v>
       </c>
       <c r="U44" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.85162740016</v>
       </c>
       <c r="V44" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.718237382058</v>
       </c>
       <c r="W44" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437412</v>
       </c>
       <c r="X44" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501801</v>
       </c>
       <c r="Y44" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.132983851458</v>
       </c>
     </row>
     <row r="45">
@@ -7719,31 +7719,31 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H45" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I45" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J45" t="n">
-        <v>216.557510983586</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K45" t="n">
-        <v>519.5985603334505</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L45" t="n">
-        <v>519.5985603334505</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M45" t="n">
-        <v>1068.51702494374</v>
+        <v>1084.28233189698</v>
       </c>
       <c r="N45" t="n">
-        <v>1646.372372870142</v>
+        <v>1662.137679823382</v>
       </c>
       <c r="O45" t="n">
-        <v>2152.777327818392</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P45" t="n">
-        <v>2346.796248312508</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q45" t="n">
         <v>2555.644190323788</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>872.8624197502102</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C46" t="n">
-        <v>735.8557341477718</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D46" t="n">
-        <v>617.6685920609048</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E46" t="n">
-        <v>501.6849958039803</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F46" t="n">
-        <v>386.7245456315386</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G46" t="n">
         <v>251.2943450749443</v>
@@ -7801,22 +7801,22 @@
         <v>140.0574709897931</v>
       </c>
       <c r="I46" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J46" t="n">
-        <v>185.1742787042778</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K46" t="n">
-        <v>459.5287020443606</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L46" t="n">
-        <v>857.3827676902781</v>
+        <v>857.3827676902787</v>
       </c>
       <c r="M46" t="n">
         <v>1285.552079040893</v>
       </c>
       <c r="N46" t="n">
-        <v>1709.719201354972</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O46" t="n">
         <v>2087.878830313935</v>
@@ -7837,16 +7837,16 @@
         <v>2144.901839127669</v>
       </c>
       <c r="U46" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V46" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W46" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X46" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y46" t="n">
         <v>1022.581387254981</v>
@@ -8216,25 +8216,25 @@
         <v>76.59275151547476</v>
       </c>
       <c r="K5" t="n">
-        <v>77.61370032481189</v>
+        <v>63.54165136781421</v>
       </c>
       <c r="L5" t="n">
         <v>55.05801165409589</v>
       </c>
       <c r="M5" t="n">
-        <v>28.32013990023216</v>
+        <v>14.24809094323447</v>
       </c>
       <c r="N5" t="n">
-        <v>9.818227446744828</v>
+        <v>23.89027640374252</v>
       </c>
       <c r="O5" t="n">
-        <v>22.74103462181913</v>
+        <v>36.81308357881682</v>
       </c>
       <c r="P5" t="n">
-        <v>54.25844273441822</v>
+        <v>68.33049169141592</v>
       </c>
       <c r="Q5" t="n">
-        <v>103.4772197988904</v>
+        <v>89.4051708418927</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>64.62604430892405</v>
+        <v>73.71076653089261</v>
       </c>
       <c r="K6" t="n">
         <v>31.51193580992788</v>
@@ -8310,7 +8310,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>17.31901206091237</v>
+        <v>8.234289838943809</v>
       </c>
       <c r="Q6" t="n">
         <v>55.92783541373416</v>
@@ -8383,13 +8383,13 @@
         <v>66.46234522459112</v>
       </c>
       <c r="N7" t="n">
-        <v>57.27972622292469</v>
+        <v>56.71115858829852</v>
       </c>
       <c r="O7" t="n">
-        <v>60.42755495425993</v>
+        <v>74.49960391125762</v>
       </c>
       <c r="P7" t="n">
-        <v>84.46421006589516</v>
+        <v>70.96072874352365</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8614,16 +8614,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>113.0742024766678</v>
+        <v>110.4711711416855</v>
       </c>
       <c r="M10" t="n">
-        <v>151.9300289740655</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>144.11651011698</v>
       </c>
       <c r="O10" t="n">
-        <v>8.508606056834765</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P10" t="n">
         <v>135.0065633140411</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>8.242295734817162e-13</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>8.242295734817162e-13</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>-2.842170943040401e-13</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>-2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -22553,19 +22553,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>105.9898572967831</v>
+        <v>14.25430980652214</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>208.9077548334816</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>170.0563803341062</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,7 +22598,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.5063572696783</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22607,10 +22607,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22702,13 +22702,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -22717,7 +22717,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.5206907817879</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -22750,10 +22750,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>156.1475068297698</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>215.8207507508087</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22762,13 +22762,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>19.39454086498952</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>202.3092856321422</v>
@@ -23315,13 +23315,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>61.37338307332561</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23431,10 +23431,10 @@
         <v>165.8609652004074</v>
       </c>
       <c r="H13" t="n">
-        <v>143.2894102658559</v>
+        <v>10.5390146625661</v>
       </c>
       <c r="I13" t="n">
-        <v>91.39514006513274</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>186.8962603916595</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,16 +23473,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>208.2959736340528</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23498,7 +23498,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>150.0096791490439</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605503</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>91.93034877516573</v>
+        <v>91.93034877516578</v>
       </c>
       <c r="T14" t="n">
-        <v>200.6028050067863</v>
+        <v>200.6028050067864</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>150.0096791490437</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23650,25 +23650,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>85.2708271076912</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>124.125517894693</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>141.7347076965137</v>
       </c>
       <c r="I16" t="n">
         <v>86.13649374674407</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>218.097472392356</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>9.237055564881302e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23899,7 +23899,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>-4.405364961712621e-13</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>-5.633271754633802e-13</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>-2.259525899717119e-12</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>-1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25321,7 +25321,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>-4.405364961712621e-13</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>54897.30537595437</v>
+        <v>54897.30537595438</v>
       </c>
       <c r="C2" t="n">
-        <v>61578.13273982128</v>
+        <v>61578.13273982132</v>
       </c>
       <c r="D2" t="n">
+        <v>61578.1327398213</v>
+      </c>
+      <c r="E2" t="n">
+        <v>54233.8993841408</v>
+      </c>
+      <c r="F2" t="n">
+        <v>57505.73864634826</v>
+      </c>
+      <c r="G2" t="n">
+        <v>61578.1327398213</v>
+      </c>
+      <c r="H2" t="n">
         <v>61578.13273982127</v>
       </c>
-      <c r="E2" t="n">
-        <v>54233.89938414079</v>
-      </c>
-      <c r="F2" t="n">
-        <v>57505.73864634828</v>
-      </c>
-      <c r="G2" t="n">
-        <v>61578.13273982133</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>61578.1327398213</v>
       </c>
-      <c r="I2" t="n">
-        <v>61578.13273982133</v>
-      </c>
       <c r="J2" t="n">
+        <v>61578.13273982125</v>
+      </c>
+      <c r="K2" t="n">
+        <v>61578.13273982132</v>
+      </c>
+      <c r="L2" t="n">
         <v>61578.13273982127</v>
       </c>
-      <c r="K2" t="n">
-        <v>61578.13273982127</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
+        <v>61578.13273982123</v>
+      </c>
+      <c r="N2" t="n">
+        <v>61578.13273982132</v>
+      </c>
+      <c r="O2" t="n">
+        <v>61578.13273982124</v>
+      </c>
+      <c r="P2" t="n">
         <v>61578.13273982125</v>
-      </c>
-      <c r="M2" t="n">
-        <v>61578.13273982122</v>
-      </c>
-      <c r="N2" t="n">
-        <v>61578.13273982135</v>
-      </c>
-      <c r="O2" t="n">
-        <v>61578.13273982125</v>
-      </c>
-      <c r="P2" t="n">
-        <v>61578.13273982122</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>218882.1757211761</v>
       </c>
       <c r="E3" t="n">
-        <v>774146.2656267742</v>
+        <v>774146.2656267738</v>
       </c>
       <c r="F3" t="n">
-        <v>110698.0328080879</v>
+        <v>110698.0328080883</v>
       </c>
       <c r="G3" t="n">
-        <v>25288.16188177116</v>
+        <v>25288.1618817712</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,16 +26390,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>3621.695095964579</v>
+        <v>3621.695095964638</v>
       </c>
       <c r="L3" t="n">
-        <v>61491.9924600154</v>
+        <v>61491.99246001525</v>
       </c>
       <c r="M3" t="n">
         <v>195950.2251342039</v>
       </c>
       <c r="N3" t="n">
-        <v>29105.13493845695</v>
+        <v>29105.13493845709</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>312233.9985406672</v>
+        <v>312233.9985406674</v>
       </c>
       <c r="C4" t="n">
-        <v>350946.9802405993</v>
+        <v>350946.9802405992</v>
       </c>
       <c r="D4" t="n">
         <v>285863.0648929187</v>
@@ -26427,37 +26427,37 @@
         <v>9828.373561695837</v>
       </c>
       <c r="F4" t="n">
-        <v>9889.878033789992</v>
+        <v>9889.878033789955</v>
       </c>
       <c r="G4" t="n">
+        <v>40959.76311601007</v>
+      </c>
+      <c r="H4" t="n">
         <v>40959.76311601004</v>
       </c>
-      <c r="H4" t="n">
-        <v>40959.76311601003</v>
-      </c>
       <c r="I4" t="n">
+        <v>40959.76311601008</v>
+      </c>
+      <c r="J4" t="n">
+        <v>40959.76311601005</v>
+      </c>
+      <c r="K4" t="n">
+        <v>40959.76311601011</v>
+      </c>
+      <c r="L4" t="n">
         <v>40959.76311601004</v>
       </c>
-      <c r="J4" t="n">
-        <v>40959.76311601004</v>
-      </c>
-      <c r="K4" t="n">
-        <v>40959.76311601001</v>
-      </c>
-      <c r="L4" t="n">
-        <v>40959.76311601003</v>
-      </c>
       <c r="M4" t="n">
-        <v>40959.76311601003</v>
+        <v>40959.76311601006</v>
       </c>
       <c r="N4" t="n">
-        <v>40959.76311601003</v>
+        <v>40959.76311601005</v>
       </c>
       <c r="O4" t="n">
-        <v>40959.76311601001</v>
+        <v>40959.76311601013</v>
       </c>
       <c r="P4" t="n">
-        <v>40959.76311601001</v>
+        <v>40959.76311601013</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26476,7 @@
         <v>54294.69533421406</v>
       </c>
       <c r="E5" t="n">
-        <v>83110.06754335042</v>
+        <v>83110.06754335039</v>
       </c>
       <c r="F5" t="n">
         <v>92448.996000607</v>
@@ -26491,25 +26491,25 @@
         <v>95106.43410215528</v>
       </c>
       <c r="J5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.43410215527</v>
       </c>
       <c r="K5" t="n">
         <v>95106.43410215528</v>
       </c>
       <c r="L5" t="n">
-        <v>95106.4341021553</v>
+        <v>95106.43410215527</v>
       </c>
       <c r="M5" t="n">
-        <v>95106.4341021553</v>
+        <v>95106.43410215528</v>
       </c>
       <c r="N5" t="n">
-        <v>95106.4341021553</v>
+        <v>95106.43410215528</v>
       </c>
       <c r="O5" t="n">
-        <v>95106.4341021553</v>
+        <v>95106.43410215525</v>
       </c>
       <c r="P5" t="n">
-        <v>95106.4341021553</v>
+        <v>95106.43410215525</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-547956.4487045255</v>
+        <v>-548179.1429499878</v>
       </c>
       <c r="C6" t="n">
-        <v>-376356.325623007</v>
+        <v>-376356.3256230069</v>
       </c>
       <c r="D6" t="n">
-        <v>-497461.8032084876</v>
+        <v>-497461.8032084875</v>
       </c>
       <c r="E6" t="n">
-        <v>-812850.8073476796</v>
+        <v>-813095.6151262019</v>
       </c>
       <c r="F6" t="n">
-        <v>-155531.1681961367</v>
+        <v>-155666.9146659194</v>
       </c>
       <c r="G6" t="n">
-        <v>-99776.22636011516</v>
+        <v>-99776.22636011525</v>
       </c>
       <c r="H6" t="n">
-        <v>-74488.06447834401</v>
+        <v>-74488.06447834405</v>
       </c>
       <c r="I6" t="n">
-        <v>-74488.06447834399</v>
+        <v>-74488.06447834405</v>
       </c>
       <c r="J6" t="n">
-        <v>-74488.06447834405</v>
+        <v>-74488.06447834407</v>
       </c>
       <c r="K6" t="n">
-        <v>-78109.7595743086</v>
+        <v>-78109.7595743087</v>
       </c>
       <c r="L6" t="n">
-        <v>-135980.0569383595</v>
+        <v>-135980.0569383593</v>
       </c>
       <c r="M6" t="n">
-        <v>-270438.2896125481</v>
+        <v>-270438.289612548</v>
       </c>
       <c r="N6" t="n">
-        <v>-103593.1994168009</v>
+        <v>-103593.1994168011</v>
       </c>
       <c r="O6" t="n">
-        <v>-74488.06447834407</v>
+        <v>-74488.06447834414</v>
       </c>
       <c r="P6" t="n">
-        <v>-74488.06447834408</v>
+        <v>-74488.06447834414</v>
       </c>
     </row>
   </sheetData>
@@ -26707,19 +26707,19 @@
         <v>31.61020235221395</v>
       </c>
       <c r="J2" t="n">
+        <v>31.61020235221397</v>
+      </c>
+      <c r="K2" t="n">
+        <v>31.61020235221402</v>
+      </c>
+      <c r="L2" t="n">
         <v>31.61020235221395</v>
       </c>
-      <c r="K2" t="n">
-        <v>31.61020235221394</v>
-      </c>
-      <c r="L2" t="n">
-        <v>31.61020235221397</v>
-      </c>
       <c r="M2" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="N2" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="O2" t="n">
         <v>31.61020235221395</v>
@@ -26796,7 +26796,7 @@
         <v>157.1187419577135</v>
       </c>
       <c r="E4" t="n">
-        <v>943.4232360035712</v>
+        <v>943.4232360035707</v>
       </c>
       <c r="F4" t="n">
         <v>1062.255112188953</v>
@@ -26826,10 +26826,10 @@
         <v>1062.255112188953</v>
       </c>
       <c r="O4" t="n">
-        <v>1062.255112188953</v>
+        <v>1062.255112188952</v>
       </c>
       <c r="P4" t="n">
-        <v>1062.255112188953</v>
+        <v>1062.255112188952</v>
       </c>
     </row>
   </sheetData>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26966,10 +26966,10 @@
         <v>203.69538736448</v>
       </c>
       <c r="E3" t="n">
-        <v>671.3605032636797</v>
+        <v>671.3605032636794</v>
       </c>
       <c r="F3" t="n">
-        <v>96.97020115529267</v>
+        <v>96.9702011552929</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>143.0466930007158</v>
       </c>
       <c r="E4" t="n">
-        <v>786.3044940458577</v>
+        <v>786.3044940458572</v>
       </c>
       <c r="F4" t="n">
-        <v>118.8318761853816</v>
+        <v>118.8318761853822</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27036,16 +27036,16 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>14.07204895699768</v>
+        <v>14.07204895699791</v>
       </c>
       <c r="L4" t="n">
-        <v>143.046693000716</v>
+        <v>143.0466930007155</v>
       </c>
       <c r="M4" t="n">
-        <v>786.3044940458577</v>
+        <v>786.3044940458574</v>
       </c>
       <c r="N4" t="n">
-        <v>118.8318761853816</v>
+        <v>118.8318761853822</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>143.0466930007158</v>
       </c>
       <c r="M4" t="n">
-        <v>786.3044940458577</v>
+        <v>786.3044940458572</v>
       </c>
       <c r="N4" t="n">
-        <v>118.8318761853816</v>
+        <v>118.8318761853822</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27385,19 +27385,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>308.264452509739</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>328.737591844935</v>
+        <v>119.8298370114534</v>
       </c>
       <c r="I2" t="n">
-        <v>170.0563803341062</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>185.1290231762283</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.5063572696783</v>
       </c>
       <c r="U2" t="n">
         <v>251.2617786911475</v>
@@ -27439,10 +27439,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27549,7 +27549,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.5206907817879</v>
       </c>
       <c r="H4" t="n">
         <v>158.0458795257661</v>
@@ -27582,10 +27582,10 @@
         <v>46.78178798155719</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>156.1475068297698</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>215.8207507508087</v>
       </c>
       <c r="T4" t="n">
         <v>225.9361746006879</v>
@@ -27594,13 +27594,13 @@
         <v>286.2933772523089</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27619,7 +27619,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>340.6109926636853</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>321.3523979401307</v>
+        <v>326.8710129197428</v>
       </c>
       <c r="I5" t="n">
-        <v>163.029768932815</v>
+        <v>157.5111539532029</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,7 +27670,7 @@
         <v>217.708510400885</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2471978231855</v>
+        <v>237.1751488661878</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27701,19 +27701,19 @@
         <v>133.3730166076411</v>
       </c>
       <c r="E6" t="n">
-        <v>145.2504197340774</v>
+        <v>143.5730314984033</v>
       </c>
       <c r="F6" t="n">
-        <v>130.9971634363862</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>136.6850407332601</v>
       </c>
       <c r="H6" t="n">
-        <v>105.8759481893422</v>
+        <v>93.48128746801866</v>
       </c>
       <c r="I6" t="n">
-        <v>66.7254048903975</v>
+        <v>52.65335593339982</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27746,7 +27746,7 @@
         <v>159.4522602229576</v>
       </c>
       <c r="T6" t="n">
-        <v>183.4385576364003</v>
+        <v>197.510606593398</v>
       </c>
       <c r="U6" t="n">
         <v>225.8980612632149</v>
@@ -27780,7 +27780,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>132.3619136895715</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27795,7 +27795,7 @@
         <v>138.8489906585418</v>
       </c>
       <c r="J7" t="n">
-        <v>40.25758365126876</v>
+        <v>54.32963260826644</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>39.93584264735714</v>
+        <v>25.86379369035946</v>
       </c>
       <c r="R7" t="n">
-        <v>140.0768016373841</v>
+        <v>152.4714623587076</v>
       </c>
       <c r="S7" t="n">
         <v>214.3959676430395</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>211.6376064320395</v>
+        <v>213.3149946677136</v>
       </c>
       <c r="Y7" t="n">
         <v>204.5126043950971</v>
@@ -27853,13 +27853,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>208.1541498132941</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>224.8116281145483</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>318.4846998108122</v>
       </c>
       <c r="I8" t="n">
-        <v>131.4600546760547</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,16 +27898,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>21.12316271950939</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>44.05464968649714</v>
+        <v>5.196876875532013</v>
       </c>
       <c r="T8" t="n">
-        <v>214.1238810212347</v>
+        <v>91.32738731233712</v>
       </c>
       <c r="U8" t="n">
-        <v>94.06294579114376</v>
+        <v>251.1816877488572</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27916,7 +27916,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>212.6123587207556</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27929,10 +27929,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>16.09346616918373</v>
+        <v>9.414441692153872</v>
       </c>
       <c r="C9" t="n">
-        <v>15.58975703060227</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -27941,7 +27941,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>136.2469034849667</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>32.07159191921399</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>151.3140530013673</v>
@@ -27989,10 +27989,10 @@
         <v>225.8692364442482</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>75.6818451917118</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>145.3763871637796</v>
       </c>
       <c r="X9" t="n">
         <v>48.65424324576401</v>
@@ -28011,28 +28011,28 @@
         <v>22.71323822422383</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>44.01213944528585</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.07161528826</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>154.0531901378539</v>
       </c>
       <c r="I10" t="n">
         <v>127.8026899798254</v>
       </c>
       <c r="J10" t="n">
-        <v>28.36014035361791</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>9.177839155320669</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>135.9554396389582</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>84.25391565282357</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>61.46591139438132</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28582,7 +28582,7 @@
         <v>31.61020235221395</v>
       </c>
       <c r="I17" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28819,7 +28819,7 @@
         <v>31.61020235221395</v>
       </c>
       <c r="I20" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28995,7 +28995,7 @@
         <v>31.61020235221395</v>
       </c>
       <c r="O22" t="n">
-        <v>31.61020235221315</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="P22" t="n">
         <v>31.61020235221395</v>
@@ -29056,7 +29056,7 @@
         <v>31.61020235221395</v>
       </c>
       <c r="I23" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29095,7 +29095,7 @@
         <v>31.61020235221395</v>
       </c>
       <c r="V23" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221429</v>
       </c>
       <c r="W23" t="n">
         <v>31.61020235221395</v>
@@ -29223,13 +29223,13 @@
         <v>31.61020235221395</v>
       </c>
       <c r="L25" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221378</v>
       </c>
       <c r="M25" t="n">
         <v>31.61020235221395</v>
       </c>
       <c r="N25" t="n">
-        <v>31.61020235221332</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="O25" t="n">
         <v>31.61020235221395</v>
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="C26" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="D26" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="E26" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="F26" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="G26" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="H26" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="I26" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="T26" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="U26" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="V26" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="W26" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="X26" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Y26" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="C28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="D28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="E28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="F28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="G28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="H28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="I28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="J28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="K28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="L28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="M28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="N28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="O28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="P28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Q28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="R28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="S28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="T28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="U28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="V28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="W28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="X28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Y28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="C29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="D29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="E29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="F29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="G29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="H29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="I29" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="T29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="U29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="V29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="W29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="X29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="Y29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="C31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="D31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="E31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="F31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="G31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="H31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="I31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="J31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="K31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="L31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="M31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="N31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="O31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="P31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="Q31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="R31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="S31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="T31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="U31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="V31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="W31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="X31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="Y31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C32" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D32" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E32" t="n">
-        <v>31.61020235221326</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F32" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G32" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H32" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I32" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T32" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U32" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V32" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W32" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X32" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y32" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="J34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="K34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="L34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="N34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="O34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="P34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Q34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="R34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="S34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C35" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D35" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E35" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F35" t="n">
-        <v>31.61020235221332</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G35" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H35" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I35" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T35" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U35" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V35" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221429</v>
       </c>
       <c r="W35" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X35" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y35" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="J37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="K37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="L37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="N37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="O37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="P37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Q37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="R37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="S37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I38" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221429</v>
       </c>
       <c r="W38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y38" t="n">
-        <v>31.61020235221355</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="J40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="K40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="L40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="N40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="O40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="P40" t="n">
-        <v>31.61020235221275</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Q40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221334</v>
       </c>
       <c r="R40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="S40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="41">
@@ -30457,13 +30457,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>31.61020235221338</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C41" t="n">
         <v>31.61020235221395</v>
       </c>
       <c r="D41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221605</v>
       </c>
       <c r="E41" t="n">
         <v>31.61020235221395</v>
@@ -30478,7 +30478,7 @@
         <v>31.61020235221395</v>
       </c>
       <c r="I41" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30706,7 +30706,7 @@
         <v>31.61020235221395</v>
       </c>
       <c r="F44" t="n">
-        <v>31.61020235221332</v>
+        <v>31.61020235221594</v>
       </c>
       <c r="G44" t="n">
         <v>31.61020235221395</v>
@@ -30715,7 +30715,7 @@
         <v>31.61020235221395</v>
       </c>
       <c r="I44" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.748501183778208</v>
+        <v>4.748501183778207</v>
       </c>
       <c r="H11" t="n">
         <v>48.63058774836858</v>
@@ -31762,28 +31762,28 @@
         <v>403.023102346696</v>
       </c>
       <c r="K11" t="n">
-        <v>604.0271574560277</v>
+        <v>604.0271574560276</v>
       </c>
       <c r="L11" t="n">
-        <v>749.3491005590802</v>
+        <v>749.3491005590801</v>
       </c>
       <c r="M11" t="n">
-        <v>833.7952584860958</v>
+        <v>833.7952584860957</v>
       </c>
       <c r="N11" t="n">
-        <v>847.2869374745057</v>
+        <v>847.2869374745056</v>
       </c>
       <c r="O11" t="n">
-        <v>800.0690288283112</v>
+        <v>800.069028828311</v>
       </c>
       <c r="P11" t="n">
-        <v>682.8404058537865</v>
+        <v>682.8404058537864</v>
       </c>
       <c r="Q11" t="n">
-        <v>512.7847072097293</v>
+        <v>512.7847072097292</v>
       </c>
       <c r="R11" t="n">
-        <v>298.2830374855081</v>
+        <v>298.283037485508</v>
       </c>
       <c r="S11" t="n">
         <v>108.206470725346</v>
@@ -31835,34 +31835,34 @@
         <v>24.53754388831657</v>
       </c>
       <c r="I12" t="n">
-        <v>87.47489533300866</v>
+        <v>87.47489533300865</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>240.0377987730368</v>
       </c>
       <c r="K12" t="n">
         <v>410.2628307611948</v>
       </c>
       <c r="L12" t="n">
-        <v>347.7041656607818</v>
+        <v>551.6490055363812</v>
       </c>
       <c r="M12" t="n">
-        <v>643.7483698583324</v>
+        <v>643.7483698583322</v>
       </c>
       <c r="N12" t="n">
-        <v>660.7864736754242</v>
+        <v>331.5764282900215</v>
       </c>
       <c r="O12" t="n">
-        <v>604.4905282967796</v>
+        <v>604.4905282967795</v>
       </c>
       <c r="P12" t="n">
-        <v>485.1569417845262</v>
+        <v>485.1569417845261</v>
       </c>
       <c r="Q12" t="n">
         <v>324.3145673594756</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>157.7445373673975</v>
       </c>
       <c r="S12" t="n">
         <v>47.19187028475049</v>
@@ -31871,7 +31871,7 @@
         <v>10.2406915682847</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1671494815280421</v>
+        <v>0.167149481528042</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,7 +31908,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.130014158051333</v>
+        <v>2.130014158051332</v>
       </c>
       <c r="H13" t="n">
         <v>18.93776224158368</v>
@@ -31923,16 +31923,16 @@
         <v>247.4689176354184</v>
       </c>
       <c r="L13" t="n">
-        <v>316.6750140070137</v>
+        <v>316.6750140070136</v>
       </c>
       <c r="M13" t="n">
         <v>333.8894011570829</v>
       </c>
       <c r="N13" t="n">
-        <v>325.9502574770737</v>
+        <v>325.9502574770736</v>
       </c>
       <c r="O13" t="n">
-        <v>301.0678193580194</v>
+        <v>301.0678193580193</v>
       </c>
       <c r="P13" t="n">
         <v>257.615530533772</v>
@@ -31941,13 +31941,13 @@
         <v>178.3596400891893</v>
       </c>
       <c r="R13" t="n">
-        <v>95.77318205201718</v>
+        <v>95.77318205201716</v>
       </c>
       <c r="S13" t="n">
-        <v>37.12033764531276</v>
+        <v>37.12033764531275</v>
       </c>
       <c r="T13" t="n">
-        <v>9.100969584401147</v>
+        <v>9.100969584401145</v>
       </c>
       <c r="U13" t="n">
         <v>0.1161825904391637</v>
@@ -32078,7 +32078,7 @@
         <v>259.7437903115855</v>
       </c>
       <c r="K15" t="n">
-        <v>181.5397624588575</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L15" t="n">
         <v>596.9368339155584</v>
@@ -32087,16 +32087,16 @@
         <v>696.5971294879669</v>
       </c>
       <c r="N15" t="n">
-        <v>715.0339827160628</v>
+        <v>272.5760810583997</v>
       </c>
       <c r="O15" t="n">
         <v>654.1164009578283</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q15" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32224,40 +32224,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.138331138171345</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H17" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I17" t="n">
-        <v>198.095511204351</v>
+        <v>198.0955112043509</v>
       </c>
       <c r="J17" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K17" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L17" t="n">
-        <v>810.8671910869753</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M17" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N17" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O17" t="n">
-        <v>865.7509905565679</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P17" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q17" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R17" t="n">
-        <v>322.7706933581561</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S17" t="n">
         <v>117.0897208110796</v>
@@ -32266,7 +32266,7 @@
         <v>22.49304455734507</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537074</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.749249533031963</v>
+        <v>2.749249533031962</v>
       </c>
       <c r="H18" t="n">
         <v>26.55196259533501</v>
       </c>
       <c r="I18" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J18" t="n">
-        <v>259.7437903115856</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L18" t="n">
-        <v>596.9368339155585</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M18" t="n">
-        <v>349.2837806975604</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N18" t="n">
-        <v>715.033982716063</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O18" t="n">
-        <v>654.1164009578284</v>
+        <v>211.6584993001651</v>
       </c>
       <c r="P18" t="n">
-        <v>524.9860796892351</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q18" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>51.06610426486998</v>
+        <v>51.06610426486996</v>
       </c>
       <c r="T18" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1808716798047345</v>
+        <v>0.1808716798047344</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32391,10 +32391,10 @@
         <v>69.31398118051422</v>
       </c>
       <c r="J19" t="n">
-        <v>162.9549067838147</v>
+        <v>162.9549067838146</v>
       </c>
       <c r="K19" t="n">
-        <v>267.7849696151667</v>
+        <v>267.7849696151666</v>
       </c>
       <c r="L19" t="n">
         <v>342.6725659692048</v>
@@ -32406,22 +32406,22 @@
         <v>352.7092639696482</v>
       </c>
       <c r="O19" t="n">
-        <v>325.7840929246177</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P19" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q19" t="n">
-        <v>193.0021404636386</v>
+        <v>193.0021404636385</v>
       </c>
       <c r="R19" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S19" t="n">
-        <v>40.16774544227499</v>
+        <v>40.16774544227498</v>
       </c>
       <c r="T19" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U19" t="n">
         <v>0.1257206430118155</v>
@@ -32461,40 +32461,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.138331138171345</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H20" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I20" t="n">
-        <v>198.095511204351</v>
+        <v>198.0955112043509</v>
       </c>
       <c r="J20" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K20" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L20" t="n">
-        <v>810.8671910869753</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M20" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N20" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O20" t="n">
-        <v>865.7509905565679</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P20" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q20" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R20" t="n">
-        <v>322.7706933581561</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S20" t="n">
         <v>117.0897208110796</v>
@@ -32503,7 +32503,7 @@
         <v>22.49304455734507</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537074</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.749249533031963</v>
+        <v>2.749249533031962</v>
       </c>
       <c r="H21" t="n">
         <v>26.55196259533501</v>
       </c>
       <c r="I21" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J21" t="n">
-        <v>259.7437903115856</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K21" t="n">
-        <v>443.9435090247271</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M21" t="n">
-        <v>696.597129487967</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N21" t="n">
-        <v>494.9858886872148</v>
+        <v>272.5760810583997</v>
       </c>
       <c r="O21" t="n">
-        <v>654.1164009578284</v>
+        <v>654.1164009578283</v>
       </c>
       <c r="P21" t="n">
-        <v>524.9860796892351</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q21" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>51.06610426486998</v>
+        <v>51.06610426486996</v>
       </c>
       <c r="T21" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1808716798047345</v>
+        <v>0.1808716798047344</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32628,10 +32628,10 @@
         <v>69.31398118051422</v>
       </c>
       <c r="J22" t="n">
-        <v>162.9549067838147</v>
+        <v>162.9549067838146</v>
       </c>
       <c r="K22" t="n">
-        <v>267.7849696151667</v>
+        <v>267.7849696151666</v>
       </c>
       <c r="L22" t="n">
         <v>342.6725659692048</v>
@@ -32643,22 +32643,22 @@
         <v>352.7092639696482</v>
       </c>
       <c r="O22" t="n">
-        <v>325.7840929246177</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P22" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q22" t="n">
-        <v>193.0021404636386</v>
+        <v>193.0021404636385</v>
       </c>
       <c r="R22" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S22" t="n">
-        <v>40.16774544227499</v>
+        <v>40.16774544227498</v>
       </c>
       <c r="T22" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U22" t="n">
         <v>0.1257206430118155</v>
@@ -32698,40 +32698,40 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.138331138171345</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H23" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I23" t="n">
-        <v>198.095511204351</v>
+        <v>198.0955112043509</v>
       </c>
       <c r="J23" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K23" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L23" t="n">
-        <v>810.8671910869753</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M23" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N23" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O23" t="n">
-        <v>865.7509905565679</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P23" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q23" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R23" t="n">
-        <v>322.7706933581561</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S23" t="n">
         <v>117.0897208110796</v>
@@ -32740,7 +32740,7 @@
         <v>22.49304455734507</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537074</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.749249533031963</v>
+        <v>2.749249533031962</v>
       </c>
       <c r="H24" t="n">
         <v>26.55196259533501</v>
       </c>
       <c r="I24" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K24" t="n">
-        <v>443.9435090247271</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L24" t="n">
-        <v>262.369966579056</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M24" t="n">
-        <v>696.597129487967</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N24" t="n">
-        <v>715.033982716063</v>
+        <v>272.5760810583997</v>
       </c>
       <c r="O24" t="n">
-        <v>654.1164009578284</v>
+        <v>654.1164009578283</v>
       </c>
       <c r="P24" t="n">
-        <v>524.9860796892351</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>51.06610426486998</v>
+        <v>51.06610426486996</v>
       </c>
       <c r="T24" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1808716798047345</v>
+        <v>0.1808716798047344</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32865,10 +32865,10 @@
         <v>69.31398118051422</v>
       </c>
       <c r="J25" t="n">
-        <v>162.9549067838147</v>
+        <v>162.9549067838146</v>
       </c>
       <c r="K25" t="n">
-        <v>267.7849696151667</v>
+        <v>267.7849696151666</v>
       </c>
       <c r="L25" t="n">
         <v>342.6725659692048</v>
@@ -32880,22 +32880,22 @@
         <v>352.7092639696482</v>
       </c>
       <c r="O25" t="n">
-        <v>325.7840929246177</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P25" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q25" t="n">
-        <v>193.0021404636386</v>
+        <v>193.0021404636385</v>
       </c>
       <c r="R25" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S25" t="n">
-        <v>40.16774544227499</v>
+        <v>40.16774544227498</v>
       </c>
       <c r="T25" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U25" t="n">
         <v>0.1257206430118155</v>
@@ -32935,40 +32935,40 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.138331138171345</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H26" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I26" t="n">
-        <v>198.095511204351</v>
+        <v>198.0955112043509</v>
       </c>
       <c r="J26" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K26" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L26" t="n">
-        <v>810.8671910869753</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M26" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N26" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O26" t="n">
-        <v>865.7509905565679</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P26" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q26" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R26" t="n">
-        <v>322.7706933581561</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S26" t="n">
         <v>117.0897208110796</v>
@@ -32977,7 +32977,7 @@
         <v>22.49304455734507</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537074</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.749249533031963</v>
+        <v>2.749249533031962</v>
       </c>
       <c r="H27" t="n">
         <v>26.55196259533501</v>
       </c>
       <c r="I27" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J27" t="n">
-        <v>259.7437903115856</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L27" t="n">
-        <v>596.9368339155585</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M27" t="n">
-        <v>324.2686513738028</v>
+        <v>254.1392278303035</v>
       </c>
       <c r="N27" t="n">
-        <v>715.033982716063</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O27" t="n">
-        <v>654.1164009578284</v>
+        <v>654.1164009578283</v>
       </c>
       <c r="P27" t="n">
-        <v>524.9860796892351</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q27" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>51.06610426486998</v>
+        <v>51.06610426486996</v>
       </c>
       <c r="T27" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1808716798047345</v>
+        <v>0.1808716798047344</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33102,10 +33102,10 @@
         <v>69.31398118051422</v>
       </c>
       <c r="J28" t="n">
-        <v>162.9549067838147</v>
+        <v>162.9549067838146</v>
       </c>
       <c r="K28" t="n">
-        <v>267.7849696151667</v>
+        <v>267.7849696151666</v>
       </c>
       <c r="L28" t="n">
         <v>342.6725659692048</v>
@@ -33117,22 +33117,22 @@
         <v>352.7092639696482</v>
       </c>
       <c r="O28" t="n">
-        <v>325.7840929246177</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P28" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q28" t="n">
-        <v>193.0021404636386</v>
+        <v>193.0021404636385</v>
       </c>
       <c r="R28" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S28" t="n">
-        <v>40.16774544227499</v>
+        <v>40.16774544227498</v>
       </c>
       <c r="T28" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U28" t="n">
         <v>0.1257206430118155</v>
@@ -33172,40 +33172,40 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.138331138171345</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H29" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I29" t="n">
-        <v>198.095511204351</v>
+        <v>198.0955112043509</v>
       </c>
       <c r="J29" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K29" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L29" t="n">
-        <v>810.8671910869753</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M29" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N29" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O29" t="n">
-        <v>865.7509905565679</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P29" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q29" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R29" t="n">
-        <v>322.7706933581561</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S29" t="n">
         <v>117.0897208110796</v>
@@ -33214,7 +33214,7 @@
         <v>22.49304455734507</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537074</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.749249533031963</v>
+        <v>2.749249533031962</v>
       </c>
       <c r="H30" t="n">
         <v>26.55196259533501</v>
       </c>
       <c r="I30" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J30" t="n">
-        <v>259.7437903115856</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K30" t="n">
-        <v>443.9435090247271</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L30" t="n">
-        <v>596.9368339155585</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M30" t="n">
-        <v>696.597129487967</v>
+        <v>254.1392278303035</v>
       </c>
       <c r="N30" t="n">
-        <v>452.630236150193</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O30" t="n">
-        <v>654.1164009578284</v>
+        <v>654.1164009578283</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q30" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>51.06610426486998</v>
+        <v>51.06610426486996</v>
       </c>
       <c r="T30" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1808716798047345</v>
+        <v>0.1808716798047344</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33339,10 +33339,10 @@
         <v>69.31398118051422</v>
       </c>
       <c r="J31" t="n">
-        <v>162.9549067838147</v>
+        <v>162.9549067838146</v>
       </c>
       <c r="K31" t="n">
-        <v>267.7849696151667</v>
+        <v>267.7849696151666</v>
       </c>
       <c r="L31" t="n">
         <v>342.6725659692048</v>
@@ -33354,22 +33354,22 @@
         <v>352.7092639696482</v>
       </c>
       <c r="O31" t="n">
-        <v>325.7840929246177</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P31" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q31" t="n">
-        <v>193.0021404636386</v>
+        <v>193.0021404636385</v>
       </c>
       <c r="R31" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S31" t="n">
-        <v>40.16774544227499</v>
+        <v>40.16774544227498</v>
       </c>
       <c r="T31" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U31" t="n">
         <v>0.1257206430118155</v>
@@ -33409,40 +33409,40 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.138331138171345</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H32" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I32" t="n">
-        <v>198.095511204351</v>
+        <v>198.0955112043509</v>
       </c>
       <c r="J32" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K32" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L32" t="n">
-        <v>810.8671910869753</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M32" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N32" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O32" t="n">
-        <v>865.7509905565679</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P32" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q32" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R32" t="n">
-        <v>322.7706933581561</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S32" t="n">
         <v>117.0897208110796</v>
@@ -33451,7 +33451,7 @@
         <v>22.49304455734507</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537074</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.749249533031963</v>
+        <v>2.749249533031962</v>
       </c>
       <c r="H33" t="n">
         <v>26.55196259533501</v>
       </c>
       <c r="I33" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K33" t="n">
-        <v>443.9435090247271</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L33" t="n">
-        <v>596.9368339155585</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M33" t="n">
-        <v>696.597129487967</v>
+        <v>254.1392278303035</v>
       </c>
       <c r="N33" t="n">
-        <v>169.5095981964496</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O33" t="n">
-        <v>654.1164009578284</v>
+        <v>654.1164009578283</v>
       </c>
       <c r="P33" t="n">
-        <v>524.9860796892351</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q33" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>51.06610426486998</v>
+        <v>51.06610426486996</v>
       </c>
       <c r="T33" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1808716798047345</v>
+        <v>0.1808716798047344</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33576,10 +33576,10 @@
         <v>69.31398118051422</v>
       </c>
       <c r="J34" t="n">
-        <v>162.9549067838147</v>
+        <v>162.9549067838146</v>
       </c>
       <c r="K34" t="n">
-        <v>267.7849696151667</v>
+        <v>267.7849696151666</v>
       </c>
       <c r="L34" t="n">
         <v>342.6725659692048</v>
@@ -33591,22 +33591,22 @@
         <v>352.7092639696482</v>
       </c>
       <c r="O34" t="n">
-        <v>325.7840929246177</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P34" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q34" t="n">
-        <v>193.0021404636386</v>
+        <v>193.0021404636385</v>
       </c>
       <c r="R34" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S34" t="n">
-        <v>40.16774544227499</v>
+        <v>40.16774544227498</v>
       </c>
       <c r="T34" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U34" t="n">
         <v>0.1257206430118155</v>
@@ -33646,40 +33646,40 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.138331138171345</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H35" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I35" t="n">
-        <v>198.095511204351</v>
+        <v>198.0955112043509</v>
       </c>
       <c r="J35" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K35" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L35" t="n">
-        <v>810.8671910869753</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M35" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N35" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O35" t="n">
-        <v>865.7509905565679</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P35" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q35" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R35" t="n">
-        <v>322.7706933581561</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S35" t="n">
         <v>117.0897208110796</v>
@@ -33688,7 +33688,7 @@
         <v>22.49304455734507</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537074</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.749249533031963</v>
+        <v>2.749249533031962</v>
       </c>
       <c r="H36" t="n">
         <v>26.55196259533501</v>
       </c>
       <c r="I36" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J36" t="n">
-        <v>259.7437903115856</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K36" t="n">
-        <v>443.9435090247271</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L36" t="n">
-        <v>596.9368339155585</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M36" t="n">
-        <v>620.1357707814504</v>
+        <v>254.1392278303035</v>
       </c>
       <c r="N36" t="n">
-        <v>715.033982716063</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O36" t="n">
-        <v>654.1164009578284</v>
+        <v>654.1164009578283</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>51.06610426486998</v>
+        <v>51.06610426486996</v>
       </c>
       <c r="T36" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1808716798047345</v>
+        <v>0.1808716798047344</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33813,10 +33813,10 @@
         <v>69.31398118051422</v>
       </c>
       <c r="J37" t="n">
-        <v>162.9549067838147</v>
+        <v>162.9549067838146</v>
       </c>
       <c r="K37" t="n">
-        <v>267.7849696151667</v>
+        <v>267.7849696151666</v>
       </c>
       <c r="L37" t="n">
         <v>342.6725659692048</v>
@@ -33828,22 +33828,22 @@
         <v>352.7092639696482</v>
       </c>
       <c r="O37" t="n">
-        <v>325.7840929246177</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P37" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q37" t="n">
-        <v>193.0021404636386</v>
+        <v>193.0021404636385</v>
       </c>
       <c r="R37" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S37" t="n">
-        <v>40.16774544227499</v>
+        <v>40.16774544227498</v>
       </c>
       <c r="T37" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U37" t="n">
         <v>0.1257206430118155</v>
@@ -33883,40 +33883,40 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.138331138171345</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H38" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I38" t="n">
-        <v>198.095511204351</v>
+        <v>198.0955112043509</v>
       </c>
       <c r="J38" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K38" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L38" t="n">
-        <v>810.8671910869753</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M38" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N38" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O38" t="n">
-        <v>865.7509905565679</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P38" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q38" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R38" t="n">
-        <v>322.7706933581561</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S38" t="n">
         <v>117.0897208110796</v>
@@ -33925,7 +33925,7 @@
         <v>22.49304455734507</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537074</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.749249533031963</v>
+        <v>2.749249533031962</v>
       </c>
       <c r="H39" t="n">
         <v>26.55196259533501</v>
       </c>
       <c r="I39" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K39" t="n">
-        <v>443.9435090247271</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L39" t="n">
-        <v>596.9368339155585</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M39" t="n">
-        <v>696.597129487967</v>
+        <v>254.1392278303035</v>
       </c>
       <c r="N39" t="n">
-        <v>715.033982716063</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O39" t="n">
-        <v>654.1164009578284</v>
+        <v>654.1164009578283</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q39" t="n">
-        <v>196.426579024424</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>51.06610426486998</v>
+        <v>51.06610426486996</v>
       </c>
       <c r="T39" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1808716798047345</v>
+        <v>0.1808716798047344</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34050,10 +34050,10 @@
         <v>69.31398118051422</v>
       </c>
       <c r="J40" t="n">
-        <v>162.9549067838147</v>
+        <v>162.9549067838146</v>
       </c>
       <c r="K40" t="n">
-        <v>267.7849696151667</v>
+        <v>267.7849696151666</v>
       </c>
       <c r="L40" t="n">
         <v>342.6725659692048</v>
@@ -34065,22 +34065,22 @@
         <v>352.7092639696482</v>
       </c>
       <c r="O40" t="n">
-        <v>325.7840929246177</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P40" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q40" t="n">
-        <v>193.0021404636386</v>
+        <v>193.0021404636385</v>
       </c>
       <c r="R40" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S40" t="n">
-        <v>40.16774544227499</v>
+        <v>40.16774544227498</v>
       </c>
       <c r="T40" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U40" t="n">
         <v>0.1257206430118155</v>
@@ -34120,40 +34120,40 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.138331138171345</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H41" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I41" t="n">
-        <v>198.095511204351</v>
+        <v>198.0955112043509</v>
       </c>
       <c r="J41" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K41" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L41" t="n">
-        <v>810.8671910869753</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M41" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N41" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O41" t="n">
-        <v>865.7509905565679</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P41" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q41" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R41" t="n">
-        <v>322.7706933581561</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S41" t="n">
         <v>117.0897208110796</v>
@@ -34162,7 +34162,7 @@
         <v>22.49304455734507</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537074</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,34 +34199,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.749249533031963</v>
+        <v>2.749249533031962</v>
       </c>
       <c r="H42" t="n">
         <v>26.55196259533501</v>
       </c>
       <c r="I42" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J42" t="n">
-        <v>259.7437903115856</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K42" t="n">
-        <v>443.9435090247271</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L42" t="n">
-        <v>154.4789322578948</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M42" t="n">
-        <v>696.597129487967</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N42" t="n">
-        <v>715.033982716063</v>
+        <v>272.5760810583997</v>
       </c>
       <c r="O42" t="n">
-        <v>654.1164009578284</v>
+        <v>654.1164009578283</v>
       </c>
       <c r="P42" t="n">
-        <v>524.9860796892351</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34235,13 +34235,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>51.06610426486998</v>
+        <v>51.06610426486996</v>
       </c>
       <c r="T42" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1808716798047345</v>
+        <v>0.1808716798047344</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34287,10 +34287,10 @@
         <v>69.31398118051422</v>
       </c>
       <c r="J43" t="n">
-        <v>162.9549067838147</v>
+        <v>162.9549067838146</v>
       </c>
       <c r="K43" t="n">
-        <v>267.7849696151667</v>
+        <v>267.7849696151666</v>
       </c>
       <c r="L43" t="n">
         <v>342.6725659692048</v>
@@ -34302,22 +34302,22 @@
         <v>352.7092639696482</v>
       </c>
       <c r="O43" t="n">
-        <v>325.7840929246177</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P43" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q43" t="n">
-        <v>193.0021404636386</v>
+        <v>193.0021404636385</v>
       </c>
       <c r="R43" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S43" t="n">
-        <v>40.16774544227499</v>
+        <v>40.16774544227498</v>
       </c>
       <c r="T43" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U43" t="n">
         <v>0.1257206430118155</v>
@@ -34357,40 +34357,40 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.138331138171345</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H44" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I44" t="n">
-        <v>198.095511204351</v>
+        <v>198.0955112043509</v>
       </c>
       <c r="J44" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K44" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171624</v>
       </c>
       <c r="L44" t="n">
-        <v>810.8671910869753</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M44" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N44" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O44" t="n">
-        <v>865.7509905565679</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P44" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q44" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R44" t="n">
-        <v>322.7706933581561</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S44" t="n">
         <v>117.0897208110796</v>
@@ -34399,7 +34399,7 @@
         <v>22.49304455734507</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537074</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.749249533031963</v>
+        <v>2.749249533031962</v>
       </c>
       <c r="H45" t="n">
         <v>26.55196259533501</v>
       </c>
       <c r="I45" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J45" t="n">
-        <v>259.7437903115856</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K45" t="n">
-        <v>443.9435090247271</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M45" t="n">
-        <v>696.597129487967</v>
+        <v>254.1392278303035</v>
       </c>
       <c r="N45" t="n">
-        <v>715.033982716063</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O45" t="n">
-        <v>654.1164009578284</v>
+        <v>654.1164009578283</v>
       </c>
       <c r="P45" t="n">
-        <v>329.9531149841446</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q45" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>51.06610426486998</v>
+        <v>51.06610426486996</v>
       </c>
       <c r="T45" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1808716798047345</v>
+        <v>0.1808716798047344</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34524,10 +34524,10 @@
         <v>69.31398118051422</v>
       </c>
       <c r="J46" t="n">
-        <v>162.9549067838147</v>
+        <v>162.9549067838146</v>
       </c>
       <c r="K46" t="n">
-        <v>267.7849696151667</v>
+        <v>267.7849696151666</v>
       </c>
       <c r="L46" t="n">
         <v>342.6725659692048</v>
@@ -34539,22 +34539,22 @@
         <v>352.7092639696482</v>
       </c>
       <c r="O46" t="n">
-        <v>325.7840929246177</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P46" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q46" t="n">
-        <v>193.0021404636386</v>
+        <v>193.0021404636385</v>
       </c>
       <c r="R46" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S46" t="n">
-        <v>40.16774544227499</v>
+        <v>40.16774544227498</v>
       </c>
       <c r="T46" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U46" t="n">
         <v>0.1257206430118155</v>
@@ -34936,25 +34936,25 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>14.07204895699768</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>13.50348132237152</v>
       </c>
       <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
         <v>14.07204895699768</v>
       </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>14.07204895699768</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>14.07204895699768</v>
       </c>
       <c r="Q5" t="n">
-        <v>14.07204895699768</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>9.084722221968564</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -35030,7 +35030,7 @@
         <v>14.07204895699768</v>
       </c>
       <c r="P6" t="n">
-        <v>9.084722221968562</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35103,13 +35103,13 @@
         <v>14.07204895699768</v>
       </c>
       <c r="N7" t="n">
+        <v>13.50348132237152</v>
+      </c>
+      <c r="O7" t="n">
         <v>14.07204895699768</v>
       </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
       <c r="P7" t="n">
-        <v>13.50348132237152</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35334,16 +35334,16 @@
         <v>84.54389742084996</v>
       </c>
       <c r="L10" t="n">
-        <v>114.8738898684396</v>
+        <v>112.2708585334573</v>
       </c>
       <c r="M10" t="n">
-        <v>157.1187419577135</v>
+        <v>5.188712983648003</v>
       </c>
       <c r="N10" t="n">
         <v>157.1187419577135</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>154.5330603090477</v>
       </c>
       <c r="P10" t="n">
         <v>108.471464627846</v>
@@ -35410,28 +35410,28 @@
         <v>221.9771978200097</v>
       </c>
       <c r="K11" t="n">
-        <v>383.9373064110471</v>
+        <v>383.937306411047</v>
       </c>
       <c r="L11" t="n">
-        <v>513.582685589093</v>
+        <v>513.5826855890928</v>
       </c>
       <c r="M11" t="n">
-        <v>603.4490252588231</v>
+        <v>603.449025258823</v>
       </c>
       <c r="N11" t="n">
         <v>617.8738738779148</v>
       </c>
       <c r="O11" t="n">
-        <v>569.9708174066244</v>
+        <v>569.9708174066243</v>
       </c>
       <c r="P11" t="n">
-        <v>451.6074100985169</v>
+        <v>451.6074100985168</v>
       </c>
       <c r="Q11" t="n">
-        <v>290.4790173352798</v>
+        <v>290.4790173352797</v>
       </c>
       <c r="R11" t="n">
-        <v>82.69749967137597</v>
+        <v>82.69749967137591</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>113.2001721063701</v>
       </c>
       <c r="K12" t="n">
         <v>272.4213917868358</v>
       </c>
       <c r="L12" t="n">
-        <v>209.1497858809076</v>
+        <v>413.094625756507</v>
       </c>
       <c r="M12" t="n">
-        <v>501.614335936314</v>
+        <v>501.6143359363139</v>
       </c>
       <c r="N12" t="n">
-        <v>529.4447615920909</v>
+        <v>200.2347162066881</v>
       </c>
       <c r="O12" t="n">
-        <v>461.8942838523352</v>
+        <v>461.8942838523351</v>
       </c>
       <c r="P12" t="n">
-        <v>351.182534370196</v>
+        <v>351.1825343701959</v>
       </c>
       <c r="Q12" t="n">
         <v>184.3327932734541</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>12.06503340343357</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>57.23282085755645</v>
+        <v>57.23282085755642</v>
       </c>
       <c r="K13" t="n">
-        <v>225.1994258095356</v>
+        <v>225.1994258095355</v>
       </c>
       <c r="L13" t="n">
-        <v>344.2650392673298</v>
+        <v>344.2650392673297</v>
       </c>
       <c r="M13" t="n">
         <v>373.4732781189235</v>
@@ -35580,13 +35580,13 @@
         <v>370.0824298563023</v>
       </c>
       <c r="O13" t="n">
-        <v>325.6529472720591</v>
+        <v>325.652947272059</v>
       </c>
       <c r="P13" t="n">
-        <v>254.8940897986655</v>
+        <v>254.8940897986654</v>
       </c>
       <c r="Q13" t="n">
-        <v>92.19759683749494</v>
+        <v>92.19759683749491</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>132.9061636449188</v>
       </c>
       <c r="K15" t="n">
-        <v>43.69832348449846</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L15" t="n">
         <v>458.3824541356842</v>
@@ -35735,16 +35735,16 @@
         <v>554.4630955659486</v>
       </c>
       <c r="N15" t="n">
-        <v>583.6922706327296</v>
+        <v>141.2343689750664</v>
       </c>
       <c r="O15" t="n">
         <v>511.5201565133839</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116842</v>
       </c>
       <c r="K17" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L17" t="n">
-        <v>575.1007761169881</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M17" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N17" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151681</v>
       </c>
       <c r="O17" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P17" t="n">
-        <v>507.6654448276929</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q17" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R17" t="n">
-        <v>107.1851555440239</v>
+        <v>107.1851555440247</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>132.9061636449189</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L18" t="n">
-        <v>458.3824541356843</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M18" t="n">
-        <v>207.1497467755421</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N18" t="n">
-        <v>583.6922706327297</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O18" t="n">
-        <v>511.520156513384</v>
+        <v>69.06225485572071</v>
       </c>
       <c r="P18" t="n">
-        <v>391.0116722749049</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36048,13 +36048,13 @@
         <v>401.8727935817349</v>
       </c>
       <c r="M19" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N19" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O19" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P19" t="n">
         <v>307.6533340553059</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116842</v>
       </c>
       <c r="K20" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L20" t="n">
-        <v>575.1007761169881</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M20" t="n">
-        <v>671.899754238157</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N20" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151681</v>
       </c>
       <c r="O20" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P20" t="n">
-        <v>507.6654448276931</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q20" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R20" t="n">
         <v>107.1851555440239</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>132.9061636449189</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K21" t="n">
-        <v>306.1020700503681</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M21" t="n">
         <v>554.4630955659486</v>
       </c>
       <c r="N21" t="n">
-        <v>363.6441766038815</v>
+        <v>141.2343689750664</v>
       </c>
       <c r="O21" t="n">
-        <v>511.520156513384</v>
+        <v>511.5201565133839</v>
       </c>
       <c r="P21" t="n">
-        <v>391.0116722749049</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>25.01512932375746</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36285,13 +36285,13 @@
         <v>401.8727935817349</v>
       </c>
       <c r="M22" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N22" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O22" t="n">
-        <v>381.9794231908705</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P22" t="n">
         <v>307.6533340553059</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116842</v>
       </c>
       <c r="K23" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L23" t="n">
-        <v>575.1007761169881</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M23" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N23" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151681</v>
       </c>
       <c r="O23" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P23" t="n">
-        <v>507.6654448276931</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q23" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R23" t="n">
-        <v>107.1851555440239</v>
+        <v>107.1851555440247</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K24" t="n">
-        <v>306.1020700503681</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L24" t="n">
-        <v>123.8155867991819</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M24" t="n">
         <v>554.4630955659486</v>
       </c>
       <c r="N24" t="n">
-        <v>583.6922706327297</v>
+        <v>141.2343689750664</v>
       </c>
       <c r="O24" t="n">
-        <v>511.520156513384</v>
+        <v>511.5201565133839</v>
       </c>
       <c r="P24" t="n">
-        <v>391.0116722749049</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>25.01512932375746</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36519,16 +36519,16 @@
         <v>277.1256801414978</v>
       </c>
       <c r="L25" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817347</v>
       </c>
       <c r="M25" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N25" t="n">
-        <v>428.4516387010902</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O25" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P25" t="n">
         <v>307.6533340553059</v>
@@ -36592,28 +36592,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116839</v>
       </c>
       <c r="K26" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L26" t="n">
-        <v>575.1007761169881</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M26" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N26" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151681</v>
       </c>
       <c r="O26" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P26" t="n">
-        <v>507.6654448276931</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q26" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R26" t="n">
         <v>107.1851555440239</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>132.9061636449189</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L27" t="n">
-        <v>458.3824541356843</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M27" t="n">
-        <v>182.1346174517845</v>
+        <v>112.0051939082852</v>
       </c>
       <c r="N27" t="n">
-        <v>583.6922706327297</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O27" t="n">
-        <v>511.520156513384</v>
+        <v>511.5201565133839</v>
       </c>
       <c r="P27" t="n">
-        <v>391.0116722749049</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>25.01512932375746</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36759,13 +36759,13 @@
         <v>401.8727935817349</v>
       </c>
       <c r="M28" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N28" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O28" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P28" t="n">
         <v>307.6533340553059</v>
@@ -36829,28 +36829,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>255.063527911684</v>
+        <v>255.0635279116842</v>
       </c>
       <c r="K29" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L29" t="n">
-        <v>575.1007761169881</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M29" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N29" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151681</v>
       </c>
       <c r="O29" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P29" t="n">
-        <v>507.6654448276931</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q29" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R29" t="n">
         <v>107.1851555440239</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>132.9061636449189</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K30" t="n">
-        <v>306.1020700503681</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L30" t="n">
-        <v>458.3824541356843</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M30" t="n">
-        <v>554.4630955659486</v>
+        <v>112.0051939082852</v>
       </c>
       <c r="N30" t="n">
-        <v>321.2885240668597</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O30" t="n">
-        <v>511.520156513384</v>
+        <v>511.5201565133839</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>101.2059290193558</v>
+        <v>101.2059290193559</v>
       </c>
       <c r="K31" t="n">
         <v>277.1256801414978</v>
@@ -37008,7 +37008,7 @@
         <v>307.6533340553059</v>
       </c>
       <c r="Q31" t="n">
-        <v>138.4502995641581</v>
+        <v>138.4502995641582</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116842</v>
       </c>
       <c r="K32" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L32" t="n">
-        <v>575.1007761169881</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M32" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N32" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151681</v>
       </c>
       <c r="O32" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P32" t="n">
-        <v>507.6654448276931</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q32" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R32" t="n">
-        <v>107.1851555440239</v>
+        <v>107.1851555440238</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K33" t="n">
-        <v>306.1020700503681</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L33" t="n">
-        <v>458.3824541356843</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M33" t="n">
-        <v>554.4630955659486</v>
+        <v>112.0051939082852</v>
       </c>
       <c r="N33" t="n">
-        <v>38.16788611311632</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O33" t="n">
-        <v>511.520156513384</v>
+        <v>511.5201565133839</v>
       </c>
       <c r="P33" t="n">
-        <v>391.0116722749049</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>25.01512932375746</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>101.2059290193559</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K34" t="n">
         <v>277.1256801414978</v>
@@ -37233,13 +37233,13 @@
         <v>401.8727935817349</v>
       </c>
       <c r="M34" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N34" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O34" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P34" t="n">
         <v>307.6533340553059</v>
@@ -37303,28 +37303,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116842</v>
       </c>
       <c r="K35" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L35" t="n">
-        <v>575.1007761169881</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M35" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N35" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151681</v>
       </c>
       <c r="O35" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P35" t="n">
-        <v>507.6654448276931</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q35" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R35" t="n">
         <v>107.1851555440239</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>132.9061636449189</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K36" t="n">
-        <v>306.1020700503681</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L36" t="n">
-        <v>458.3824541356843</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M36" t="n">
-        <v>478.0017368594321</v>
+        <v>112.0051939082852</v>
       </c>
       <c r="N36" t="n">
-        <v>583.6922706327297</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O36" t="n">
-        <v>511.520156513384</v>
+        <v>511.5201565133839</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>25.01512932375746</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>101.2059290193559</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K37" t="n">
         <v>277.1256801414978</v>
@@ -37470,13 +37470,13 @@
         <v>401.8727935817349</v>
       </c>
       <c r="M37" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N37" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O37" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P37" t="n">
         <v>307.6533340553059</v>
@@ -37540,28 +37540,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116842</v>
       </c>
       <c r="K38" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L38" t="n">
-        <v>575.1007761169881</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M38" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N38" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151681</v>
       </c>
       <c r="O38" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P38" t="n">
-        <v>507.6654448276931</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q38" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R38" t="n">
         <v>107.1851555440239</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K39" t="n">
-        <v>306.1020700503681</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L39" t="n">
-        <v>458.3824541356843</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M39" t="n">
-        <v>554.4630955659486</v>
+        <v>112.0051939082852</v>
       </c>
       <c r="N39" t="n">
-        <v>583.6922706327297</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O39" t="n">
-        <v>511.520156513384</v>
+        <v>511.5201565133839</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.44480493840248</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>25.01512932375746</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>101.2059290193559</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K40" t="n">
         <v>277.1256801414978</v>
@@ -37707,19 +37707,19 @@
         <v>401.8727935817349</v>
       </c>
       <c r="M40" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N40" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O40" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P40" t="n">
-        <v>307.6533340553048</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q40" t="n">
-        <v>138.4502995641581</v>
+        <v>138.4502995641575</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,28 +37777,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116842</v>
       </c>
       <c r="K41" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L41" t="n">
-        <v>575.1007761169881</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M41" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N41" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151681</v>
       </c>
       <c r="O41" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P41" t="n">
-        <v>507.6654448276931</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q41" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R41" t="n">
         <v>107.1851555440239</v>
@@ -37856,25 +37856,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>132.9061636449189</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K42" t="n">
-        <v>306.1020700503681</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L42" t="n">
-        <v>15.92455247802059</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M42" t="n">
         <v>554.4630955659486</v>
       </c>
       <c r="N42" t="n">
-        <v>583.6922706327297</v>
+        <v>141.2343689750664</v>
       </c>
       <c r="O42" t="n">
-        <v>511.520156513384</v>
+        <v>511.5201565133839</v>
       </c>
       <c r="P42" t="n">
-        <v>391.0116722749049</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37944,13 +37944,13 @@
         <v>401.8727935817349</v>
       </c>
       <c r="M43" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N43" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O43" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P43" t="n">
         <v>307.6533340553059</v>
@@ -38014,28 +38014,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116842</v>
       </c>
       <c r="K44" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721818</v>
       </c>
       <c r="L44" t="n">
-        <v>575.1007761169881</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M44" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N44" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151681</v>
       </c>
       <c r="O44" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P44" t="n">
-        <v>507.6654448276931</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q44" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R44" t="n">
         <v>107.1851555440239</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>132.9061636449189</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K45" t="n">
-        <v>306.1020700503681</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M45" t="n">
-        <v>554.4630955659486</v>
+        <v>112.0051939082852</v>
       </c>
       <c r="N45" t="n">
-        <v>583.6922706327297</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O45" t="n">
-        <v>511.520156513384</v>
+        <v>511.5201565133839</v>
       </c>
       <c r="P45" t="n">
-        <v>195.9787075698143</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38181,13 +38181,13 @@
         <v>401.8727935817349</v>
       </c>
       <c r="M46" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N46" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O46" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P46" t="n">
         <v>307.6533340553059</v>
